--- a/DATA/Tasa_Interbancaria.xlsx
+++ b/DATA/Tasa_Interbancaria.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\mefp\osmar.bolivar\Desktop\Research\Sentiment-Analysis-Criptocurrency\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfredo Alanoca\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A72EE2F-C172-465D-B47E-07E5BCD191CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC84E99F-808E-4028-AC72-28F832DE1749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA36D2B8-B702-4A7C-9CA0-102108F12024}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EA36D2B8-B702-4A7C-9CA0-102108F12024}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +61,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -86,11 +92,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,11 +417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DB5F72-055A-4515-85F5-A3F1CAB8EEF9}">
   <dimension ref="A1:B1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B723" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B731" sqref="B731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +510,7 @@
       <c r="A10" s="1">
         <v>44570</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>8.61</v>
       </c>
     </row>
@@ -562,7 +572,7 @@
       <c r="A17" s="1">
         <v>44577</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -624,7 +634,7 @@
       <c r="A24" s="1">
         <v>44584</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>4.8600000000000003</v>
       </c>
     </row>
@@ -686,7 +696,7 @@
       <c r="A31" s="1">
         <v>44591</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>5.31</v>
       </c>
     </row>
@@ -748,7 +758,7 @@
       <c r="A38" s="1">
         <v>44598</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -810,7 +820,7 @@
       <c r="A45" s="1">
         <v>44605</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="3">
         <v>5</v>
       </c>
     </row>
@@ -872,7 +882,7 @@
       <c r="A52" s="1">
         <v>44612</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
         <v>5.14</v>
       </c>
     </row>
@@ -943,7 +953,7 @@
       <c r="A60" s="1">
         <v>44620</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>5.09</v>
       </c>
     </row>
@@ -996,7 +1006,7 @@
       <c r="A66" s="1">
         <v>44626</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="3">
         <v>4.95</v>
       </c>
     </row>
@@ -1058,7 +1068,7 @@
       <c r="A73" s="1">
         <v>44633</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="3">
         <v>8.34</v>
       </c>
     </row>
@@ -1183,7 +1193,7 @@
       <c r="A87" s="1">
         <v>44647</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -1308,7 +1318,7 @@
       <c r="A101" s="1">
         <v>44661</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="3">
         <v>8.4700000000000006</v>
       </c>
     </row>
@@ -1370,7 +1380,7 @@
       <c r="A108" s="1">
         <v>44668</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="3">
         <v>5.64</v>
       </c>
     </row>
@@ -1558,7 +1568,7 @@
       <c r="A129" s="1">
         <v>44689</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="3">
         <v>3.82</v>
       </c>
     </row>
@@ -1620,7 +1630,7 @@
       <c r="A136" s="1">
         <v>44696</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="3">
         <v>6.54</v>
       </c>
     </row>
@@ -1682,7 +1692,7 @@
       <c r="A143" s="1">
         <v>44703</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="3">
         <v>5.46</v>
       </c>
     </row>
@@ -1744,7 +1754,7 @@
       <c r="A150" s="1">
         <v>44710</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="3">
         <v>5.79</v>
       </c>
     </row>
@@ -1761,7 +1771,7 @@
       <c r="A152" s="1">
         <v>44712</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="3">
         <v>5.65</v>
       </c>
     </row>
@@ -1805,7 +1815,7 @@
       <c r="A157" s="1">
         <v>44717</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="3">
         <v>5.71</v>
       </c>
     </row>
@@ -1867,7 +1877,7 @@
       <c r="A164" s="1">
         <v>44724</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="3">
         <v>5.75</v>
       </c>
     </row>
@@ -1929,7 +1939,7 @@
       <c r="A171" s="1">
         <v>44731</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="3">
         <v>8.34</v>
       </c>
     </row>
@@ -1991,7 +2001,7 @@
       <c r="A178" s="1">
         <v>44738</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="3">
         <v>6.72</v>
       </c>
     </row>
@@ -2026,7 +2036,7 @@
       <c r="A182" s="1">
         <v>44742</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="3">
         <v>6.21</v>
       </c>
     </row>
@@ -2052,7 +2062,7 @@
       <c r="A185" s="1">
         <v>44745</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="3">
         <v>8.34</v>
       </c>
     </row>
@@ -2114,7 +2124,7 @@
       <c r="A192" s="1">
         <v>44752</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="3">
         <v>6.05</v>
       </c>
     </row>
@@ -2239,7 +2249,7 @@
       <c r="A206" s="1">
         <v>44766</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="3">
         <v>5.64</v>
       </c>
     </row>
@@ -2301,7 +2311,7 @@
       <c r="A213" s="1">
         <v>44773</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="3">
         <v>5.97</v>
       </c>
     </row>
@@ -2363,7 +2373,7 @@
       <c r="A220" s="1">
         <v>44780</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="3">
         <v>3.39</v>
       </c>
     </row>
@@ -2425,7 +2435,7 @@
       <c r="A227" s="1">
         <v>44787</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="3">
         <v>3</v>
       </c>
     </row>
@@ -2550,7 +2560,7 @@
       <c r="A241" s="1">
         <v>44801</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="3">
         <v>5.1100000000000003</v>
       </c>
     </row>
@@ -2576,7 +2586,7 @@
       <c r="A244" s="1">
         <v>44804</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="3">
         <v>5.56</v>
       </c>
     </row>
@@ -2611,7 +2621,7 @@
       <c r="A248" s="1">
         <v>44808</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="3">
         <v>5.65</v>
       </c>
     </row>
@@ -2673,7 +2683,7 @@
       <c r="A255" s="1">
         <v>44815</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="3">
         <v>7.77</v>
       </c>
     </row>
@@ -2735,7 +2745,7 @@
       <c r="A262" s="1">
         <v>44822</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="3">
         <v>8.31</v>
       </c>
     </row>
@@ -2797,7 +2807,7 @@
       <c r="A269" s="1">
         <v>44829</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="3">
         <v>5.64</v>
       </c>
     </row>
@@ -2841,7 +2851,7 @@
       <c r="A274" s="1">
         <v>44834</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="3">
         <v>7.28</v>
       </c>
     </row>
@@ -2921,7 +2931,7 @@
       <c r="A283" s="1">
         <v>44843</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="3">
         <v>7.77</v>
       </c>
     </row>
@@ -3046,7 +3056,7 @@
       <c r="A297" s="1">
         <v>44857</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="3">
         <v>6.75</v>
       </c>
     </row>
@@ -3108,7 +3118,7 @@
       <c r="A304" s="1">
         <v>44864</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="3">
         <v>5.24</v>
       </c>
     </row>
@@ -3116,7 +3126,7 @@
       <c r="A305" s="1">
         <v>44865</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="3">
         <v>5.13</v>
       </c>
     </row>
@@ -3169,7 +3179,7 @@
       <c r="A311" s="1">
         <v>44871</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="3">
         <v>5.13</v>
       </c>
     </row>
@@ -3294,7 +3304,7 @@
       <c r="A325" s="1">
         <v>44885</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3356,7 +3366,7 @@
       <c r="A332" s="1">
         <v>44892</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -3544,7 +3554,7 @@
       <c r="A353" s="1">
         <v>44913</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="3">
         <v>8.86</v>
       </c>
     </row>
@@ -3606,7 +3616,7 @@
       <c r="A360" s="1">
         <v>44920</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="3">
         <v>8.65</v>
       </c>
     </row>
@@ -3659,7 +3669,7 @@
       <c r="A366" s="1">
         <v>44926</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="3">
         <v>6.06</v>
       </c>
     </row>
@@ -3668,8 +3678,8 @@
         <v>44927</v>
       </c>
       <c r="B367" s="2">
-        <f t="shared" ref="B367:B374" si="37">B368</f>
-        <v>8.61</v>
+        <f>B368</f>
+        <v>5.41</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
@@ -3677,8 +3687,8 @@
         <v>44928</v>
       </c>
       <c r="B368" s="2">
-        <f t="shared" si="37"/>
-        <v>8.61</v>
+        <f>B369</f>
+        <v>5.41</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -3686,8 +3696,8 @@
         <v>44929</v>
       </c>
       <c r="B369" s="2">
-        <f t="shared" si="37"/>
-        <v>8.61</v>
+        <f>B370</f>
+        <v>5.41</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -3695,8 +3705,8 @@
         <v>44930</v>
       </c>
       <c r="B370" s="2">
-        <f t="shared" si="37"/>
-        <v>8.61</v>
+        <f>B371</f>
+        <v>5.41</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -3704,8 +3714,8 @@
         <v>44931</v>
       </c>
       <c r="B371" s="2">
-        <f t="shared" si="37"/>
-        <v>8.61</v>
+        <f t="shared" ref="B367:B374" si="37">B372</f>
+        <v>5.41</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3724,7 @@
       </c>
       <c r="B372" s="2">
         <f t="shared" si="37"/>
-        <v>8.61</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,24 +3733,24 @@
       </c>
       <c r="B373" s="2">
         <f t="shared" si="37"/>
-        <v>8.61</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>44934</v>
       </c>
-      <c r="B374" s="2">
-        <f t="shared" si="37"/>
-        <v>8.61</v>
+      <c r="B374" s="4">
+        <v>5.41</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>44935</v>
       </c>
-      <c r="B375">
-        <v>8.61</v>
+      <c r="B375" s="2">
+        <f t="shared" ref="B375:B381" si="38">B376</f>
+        <v>5.59</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -3748,8 +3758,8 @@
         <v>44936</v>
       </c>
       <c r="B376" s="2">
-        <f t="shared" ref="B376:B381" si="38">B377</f>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="38"/>
+        <v>5.59</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -3758,7 +3768,7 @@
       </c>
       <c r="B377" s="2">
         <f t="shared" si="38"/>
-        <v>4.5999999999999996</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
@@ -3767,7 +3777,7 @@
       </c>
       <c r="B378" s="2">
         <f t="shared" si="38"/>
-        <v>4.5999999999999996</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
@@ -3776,7 +3786,7 @@
       </c>
       <c r="B379" s="2">
         <f t="shared" si="38"/>
-        <v>4.5999999999999996</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,24 +3795,24 @@
       </c>
       <c r="B380" s="2">
         <f t="shared" si="38"/>
-        <v>4.5999999999999996</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>44941</v>
       </c>
-      <c r="B381" s="2">
-        <f t="shared" si="38"/>
-        <v>4.5999999999999996</v>
+      <c r="B381" s="4">
+        <v>5.59</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>44942</v>
       </c>
-      <c r="B382">
-        <v>4.5999999999999996</v>
+      <c r="B382" s="2">
+        <f t="shared" ref="B382:B388" si="39">B383</f>
+        <v>5.31</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
@@ -3810,8 +3820,8 @@
         <v>44943</v>
       </c>
       <c r="B383" s="2">
-        <f t="shared" ref="B383:B388" si="39">B384</f>
-        <v>4.8600000000000003</v>
+        <f t="shared" si="39"/>
+        <v>5.31</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -3820,7 +3830,7 @@
       </c>
       <c r="B384" s="2">
         <f t="shared" si="39"/>
-        <v>4.8600000000000003</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -3829,7 +3839,7 @@
       </c>
       <c r="B385" s="2">
         <f t="shared" si="39"/>
-        <v>4.8600000000000003</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
@@ -3838,7 +3848,7 @@
       </c>
       <c r="B386" s="2">
         <f t="shared" si="39"/>
-        <v>4.8600000000000003</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
@@ -3847,24 +3857,24 @@
       </c>
       <c r="B387" s="2">
         <f t="shared" si="39"/>
-        <v>4.8600000000000003</v>
+        <v>5.31</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>44948</v>
       </c>
-      <c r="B388" s="2">
-        <f t="shared" si="39"/>
-        <v>4.8600000000000003</v>
+      <c r="B388" s="4">
+        <v>5.31</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>44949</v>
       </c>
-      <c r="B389">
-        <v>4.8600000000000003</v>
+      <c r="B389" s="2">
+        <f t="shared" ref="B389:B395" si="40">B390</f>
+        <v>5.21</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
@@ -3872,8 +3882,8 @@
         <v>44950</v>
       </c>
       <c r="B390" s="2">
-        <f t="shared" ref="B390:B395" si="40">B391</f>
-        <v>5.31</v>
+        <f t="shared" si="40"/>
+        <v>5.21</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -3882,7 +3892,7 @@
       </c>
       <c r="B391" s="2">
         <f t="shared" si="40"/>
-        <v>5.31</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -3891,7 +3901,7 @@
       </c>
       <c r="B392" s="2">
         <f t="shared" si="40"/>
-        <v>5.31</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -3900,7 +3910,7 @@
       </c>
       <c r="B393" s="2">
         <f t="shared" si="40"/>
-        <v>5.31</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -3909,33 +3919,32 @@
       </c>
       <c r="B394" s="2">
         <f t="shared" si="40"/>
-        <v>5.31</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>44955</v>
       </c>
-      <c r="B395" s="2">
-        <f t="shared" si="40"/>
-        <v>5.31</v>
+      <c r="B395" s="4">
+        <v>5.21</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>44956</v>
       </c>
-      <c r="B396">
-        <v>5.31</v>
+      <c r="B396" s="2">
+        <f>B397</f>
+        <v>6.35</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>44957</v>
       </c>
-      <c r="B397" s="2">
-        <f t="shared" ref="B397:B402" si="41">B398</f>
-        <v>4.5999999999999996</v>
+      <c r="B397" s="4">
+        <v>6.35</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
@@ -3943,8 +3952,8 @@
         <v>44958</v>
       </c>
       <c r="B398" s="2">
-        <f t="shared" si="41"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" ref="B397:B402" si="41">B399</f>
+        <v>5.12</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
@@ -3953,7 +3962,7 @@
       </c>
       <c r="B399" s="2">
         <f t="shared" si="41"/>
-        <v>4.5999999999999996</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +3971,7 @@
       </c>
       <c r="B400" s="2">
         <f t="shared" si="41"/>
-        <v>4.5999999999999996</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -3971,24 +3980,24 @@
       </c>
       <c r="B401" s="2">
         <f t="shared" si="41"/>
-        <v>4.5999999999999996</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>44962</v>
       </c>
-      <c r="B402" s="2">
-        <f t="shared" si="41"/>
-        <v>4.5999999999999996</v>
+      <c r="B402" s="4">
+        <v>5.12</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>44963</v>
       </c>
-      <c r="B403">
-        <v>4.5999999999999996</v>
+      <c r="B403" s="2">
+        <f t="shared" ref="B403:B409" si="42">B404</f>
+        <v>5.4</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -3996,8 +4005,8 @@
         <v>44964</v>
       </c>
       <c r="B404" s="2">
-        <f t="shared" ref="B404:B409" si="42">B405</f>
-        <v>5</v>
+        <f t="shared" si="42"/>
+        <v>5.4</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
@@ -4006,7 +4015,7 @@
       </c>
       <c r="B405" s="2">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -4015,7 +4024,7 @@
       </c>
       <c r="B406" s="2">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -4024,7 +4033,7 @@
       </c>
       <c r="B407" s="2">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -4033,24 +4042,24 @@
       </c>
       <c r="B408" s="2">
         <f t="shared" si="42"/>
-        <v>5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>44969</v>
       </c>
-      <c r="B409" s="2">
-        <f t="shared" si="42"/>
-        <v>5</v>
+      <c r="B409" s="4">
+        <v>5.4</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>44970</v>
       </c>
-      <c r="B410">
-        <v>5</v>
+      <c r="B410" s="2">
+        <f t="shared" ref="B410:B416" si="43">B411</f>
+        <v>5.25</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,8 +4067,8 @@
         <v>44971</v>
       </c>
       <c r="B411" s="2">
-        <f t="shared" ref="B411:B416" si="43">B412</f>
-        <v>5.14</v>
+        <f t="shared" si="43"/>
+        <v>5.25</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -4068,7 +4077,7 @@
       </c>
       <c r="B412" s="2">
         <f t="shared" si="43"/>
-        <v>5.14</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
@@ -4077,7 +4086,7 @@
       </c>
       <c r="B413" s="2">
         <f t="shared" si="43"/>
-        <v>5.14</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
@@ -4086,7 +4095,7 @@
       </c>
       <c r="B414" s="2">
         <f t="shared" si="43"/>
-        <v>5.14</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
@@ -4095,24 +4104,24 @@
       </c>
       <c r="B415" s="2">
         <f t="shared" si="43"/>
-        <v>5.14</v>
+        <v>5.25</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>44976</v>
       </c>
-      <c r="B416" s="2">
-        <f t="shared" si="43"/>
-        <v>5.14</v>
+      <c r="B416" s="4">
+        <v>5.25</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>44977</v>
       </c>
-      <c r="B417">
-        <v>5.14</v>
+      <c r="B417" s="2">
+        <f t="shared" ref="B417:B424" si="44">B418</f>
+        <v>6.31</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
@@ -4120,8 +4129,8 @@
         <v>44978</v>
       </c>
       <c r="B418" s="2">
-        <f t="shared" ref="B418:B424" si="44">B419</f>
-        <v>5.09</v>
+        <f t="shared" si="44"/>
+        <v>6.31</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
@@ -4130,7 +4139,7 @@
       </c>
       <c r="B419" s="2">
         <f t="shared" si="44"/>
-        <v>5.09</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
@@ -4139,7 +4148,7 @@
       </c>
       <c r="B420" s="2">
         <f t="shared" si="44"/>
-        <v>5.09</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
@@ -4148,7 +4157,7 @@
       </c>
       <c r="B421" s="2">
         <f t="shared" si="44"/>
-        <v>5.09</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
@@ -4157,16 +4166,15 @@
       </c>
       <c r="B422" s="2">
         <f t="shared" si="44"/>
-        <v>5.09</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>44983</v>
       </c>
-      <c r="B423" s="2">
-        <f t="shared" si="44"/>
-        <v>5.09</v>
+      <c r="B423" s="4">
+        <v>6.31</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
@@ -4174,16 +4182,16 @@
         <v>44984</v>
       </c>
       <c r="B424" s="2">
-        <f t="shared" si="44"/>
-        <v>5.09</v>
+        <f t="shared" ref="B424:B430" si="45">B425</f>
+        <v>7.63</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>44985</v>
       </c>
-      <c r="B425">
-        <v>5.09</v>
+      <c r="B425" s="4">
+        <v>7.63</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,8 +4199,8 @@
         <v>44986</v>
       </c>
       <c r="B426" s="2">
-        <f t="shared" ref="B426:B430" si="45">B427</f>
-        <v>4.95</v>
+        <f t="shared" si="45"/>
+        <v>7.26</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -4201,7 +4209,7 @@
       </c>
       <c r="B427" s="2">
         <f t="shared" si="45"/>
-        <v>4.95</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
@@ -4210,7 +4218,7 @@
       </c>
       <c r="B428" s="2">
         <f t="shared" si="45"/>
-        <v>4.95</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -4219,24 +4227,24 @@
       </c>
       <c r="B429" s="2">
         <f t="shared" si="45"/>
-        <v>4.95</v>
+        <v>7.26</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>44990</v>
       </c>
-      <c r="B430" s="2">
-        <f t="shared" si="45"/>
-        <v>4.95</v>
+      <c r="B430" s="4">
+        <v>7.26</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>44991</v>
       </c>
-      <c r="B431">
-        <v>4.95</v>
+      <c r="B431" s="2">
+        <f t="shared" ref="B431:B437" si="46">B432</f>
+        <v>8.73</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
@@ -4244,8 +4252,8 @@
         <v>44992</v>
       </c>
       <c r="B432" s="2">
-        <f t="shared" ref="B432:B437" si="46">B433</f>
-        <v>8.34</v>
+        <f t="shared" si="46"/>
+        <v>8.73</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -4254,7 +4262,7 @@
       </c>
       <c r="B433" s="2">
         <f t="shared" si="46"/>
-        <v>8.34</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4271,7 @@
       </c>
       <c r="B434" s="2">
         <f t="shared" si="46"/>
-        <v>8.34</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4280,7 @@
       </c>
       <c r="B435" s="2">
         <f t="shared" si="46"/>
-        <v>8.34</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,24 +4289,24 @@
       </c>
       <c r="B436" s="2">
         <f t="shared" si="46"/>
-        <v>8.34</v>
+        <v>8.73</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>44997</v>
       </c>
-      <c r="B437" s="2">
-        <f t="shared" si="46"/>
-        <v>8.34</v>
+      <c r="B437" s="4">
+        <v>8.73</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>44998</v>
       </c>
-      <c r="B438">
-        <v>8.34</v>
+      <c r="B438" s="2">
+        <f t="shared" ref="B438:B451" si="47">B439</f>
+        <v>9.64</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
@@ -4306,8 +4314,8 @@
         <v>44999</v>
       </c>
       <c r="B439" s="2">
-        <f t="shared" ref="B439:B451" si="47">B440</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="47"/>
+        <v>9.64</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -4316,7 +4324,7 @@
       </c>
       <c r="B440" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -4325,7 +4333,7 @@
       </c>
       <c r="B441" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4342,7 @@
       </c>
       <c r="B442" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -4343,16 +4351,15 @@
       </c>
       <c r="B443" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.64</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>45004</v>
       </c>
-      <c r="B444" s="2">
-        <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+      <c r="B444" s="4">
+        <v>9.64</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
@@ -4361,7 +4368,7 @@
       </c>
       <c r="B445" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -4370,7 +4377,7 @@
       </c>
       <c r="B446" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
@@ -4379,7 +4386,7 @@
       </c>
       <c r="B447" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -4388,7 +4395,7 @@
       </c>
       <c r="B448" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
@@ -4397,7 +4404,7 @@
       </c>
       <c r="B449" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,24 +4413,24 @@
       </c>
       <c r="B450" s="2">
         <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+        <v>9.39</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>45011</v>
       </c>
-      <c r="B451" s="2">
-        <f t="shared" si="47"/>
-        <v>8.3000000000000007</v>
+      <c r="B451" s="4">
+        <v>9.39</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>45012</v>
       </c>
-      <c r="B452">
-        <v>8.3000000000000007</v>
+      <c r="B452" s="2">
+        <f t="shared" ref="B452:B465" si="48">B453</f>
+        <v>9.41</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
@@ -4431,8 +4438,8 @@
         <v>45013</v>
       </c>
       <c r="B453" s="2">
-        <f t="shared" ref="B453:B465" si="48">B454</f>
-        <v>8.4700000000000006</v>
+        <f t="shared" si="48"/>
+        <v>9.41</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
@@ -4441,7 +4448,7 @@
       </c>
       <c r="B454" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
@@ -4450,16 +4457,15 @@
       </c>
       <c r="B455" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>45016</v>
       </c>
-      <c r="B456" s="2">
-        <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+      <c r="B456" s="4">
+        <v>9.41</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
@@ -4468,7 +4474,7 @@
       </c>
       <c r="B457" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
@@ -4477,7 +4483,7 @@
       </c>
       <c r="B458" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
@@ -4486,7 +4492,7 @@
       </c>
       <c r="B459" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -4495,7 +4501,7 @@
       </c>
       <c r="B460" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -4504,7 +4510,7 @@
       </c>
       <c r="B461" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
@@ -4513,7 +4519,7 @@
       </c>
       <c r="B462" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -4522,7 +4528,7 @@
       </c>
       <c r="B463" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -4531,24 +4537,24 @@
       </c>
       <c r="B464" s="2">
         <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+        <v>9.43</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>45025</v>
       </c>
-      <c r="B465" s="2">
-        <f t="shared" si="48"/>
-        <v>8.4700000000000006</v>
+      <c r="B465" s="4">
+        <v>9.43</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>45026</v>
       </c>
-      <c r="B466">
-        <v>8.4700000000000006</v>
+      <c r="B466" s="2">
+        <f t="shared" ref="B466:B472" si="49">B467</f>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
@@ -4556,8 +4562,8 @@
         <v>45027</v>
       </c>
       <c r="B467" s="2">
-        <f t="shared" ref="B467:B472" si="49">B468</f>
-        <v>5.64</v>
+        <f t="shared" si="49"/>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -4566,7 +4572,7 @@
       </c>
       <c r="B468" s="2">
         <f t="shared" si="49"/>
-        <v>5.64</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
@@ -4575,7 +4581,7 @@
       </c>
       <c r="B469" s="2">
         <f t="shared" si="49"/>
-        <v>5.64</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4590,7 @@
       </c>
       <c r="B470" s="2">
         <f t="shared" si="49"/>
-        <v>5.64</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -4593,24 +4599,24 @@
       </c>
       <c r="B471" s="2">
         <f t="shared" si="49"/>
-        <v>5.64</v>
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>45032</v>
       </c>
-      <c r="B472" s="2">
-        <f t="shared" si="49"/>
-        <v>5.64</v>
+      <c r="B472" s="4">
+        <v>9.4499999999999993</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>45033</v>
       </c>
-      <c r="B473">
-        <v>5.64</v>
+      <c r="B473" s="2">
+        <f t="shared" ref="B473:B493" si="50">B474</f>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
@@ -4618,8 +4624,8 @@
         <v>45034</v>
       </c>
       <c r="B474" s="2">
-        <f t="shared" ref="B474:B493" si="50">B475</f>
-        <v>3.82</v>
+        <f t="shared" si="50"/>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
@@ -4628,7 +4634,7 @@
       </c>
       <c r="B475" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -4637,7 +4643,7 @@
       </c>
       <c r="B476" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
@@ -4646,7 +4652,7 @@
       </c>
       <c r="B477" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
@@ -4655,16 +4661,15 @@
       </c>
       <c r="B478" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>45039</v>
       </c>
-      <c r="B479" s="2">
-        <f t="shared" si="50"/>
-        <v>3.82</v>
+      <c r="B479" s="4">
+        <v>9.3800000000000008</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -4673,7 +4678,7 @@
       </c>
       <c r="B480" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -4682,7 +4687,7 @@
       </c>
       <c r="B481" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -4691,7 +4696,7 @@
       </c>
       <c r="B482" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,7 +4705,7 @@
       </c>
       <c r="B483" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -4709,7 +4714,7 @@
       </c>
       <c r="B484" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
@@ -4718,16 +4723,15 @@
       </c>
       <c r="B485" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>45046</v>
       </c>
-      <c r="B486" s="2">
-        <f t="shared" si="50"/>
-        <v>3.82</v>
+      <c r="B486" s="4">
+        <v>9.83</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -4736,7 +4740,7 @@
       </c>
       <c r="B487" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
@@ -4745,7 +4749,7 @@
       </c>
       <c r="B488" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -4754,7 +4758,7 @@
       </c>
       <c r="B489" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
@@ -4763,7 +4767,7 @@
       </c>
       <c r="B490" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
@@ -4772,7 +4776,7 @@
       </c>
       <c r="B491" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -4781,24 +4785,24 @@
       </c>
       <c r="B492" s="2">
         <f t="shared" si="50"/>
-        <v>3.82</v>
+        <v>9.67</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>45053</v>
       </c>
-      <c r="B493" s="2">
-        <f t="shared" si="50"/>
-        <v>3.82</v>
+      <c r="B493" s="4">
+        <v>9.67</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>45054</v>
       </c>
-      <c r="B494">
-        <v>3.82</v>
+      <c r="B494" s="2">
+        <f t="shared" ref="B494:B500" si="51">B495</f>
+        <v>8.92</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,8 +4810,8 @@
         <v>45055</v>
       </c>
       <c r="B495" s="2">
-        <f t="shared" ref="B495:B500" si="51">B496</f>
-        <v>6.54</v>
+        <f t="shared" si="51"/>
+        <v>8.92</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -4816,7 +4820,7 @@
       </c>
       <c r="B496" s="2">
         <f t="shared" si="51"/>
-        <v>6.54</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.25">
@@ -4825,7 +4829,7 @@
       </c>
       <c r="B497" s="2">
         <f t="shared" si="51"/>
-        <v>6.54</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.25">
@@ -4834,7 +4838,7 @@
       </c>
       <c r="B498" s="2">
         <f t="shared" si="51"/>
-        <v>6.54</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.25">
@@ -4843,24 +4847,24 @@
       </c>
       <c r="B499" s="2">
         <f t="shared" si="51"/>
-        <v>6.54</v>
+        <v>8.92</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>45060</v>
       </c>
-      <c r="B500" s="2">
-        <f t="shared" si="51"/>
-        <v>6.54</v>
+      <c r="B500" s="4">
+        <v>8.92</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>45061</v>
       </c>
-      <c r="B501">
-        <v>6.54</v>
+      <c r="B501" s="2">
+        <f t="shared" ref="B501:B507" si="52">B502</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -4868,8 +4872,8 @@
         <v>45062</v>
       </c>
       <c r="B502" s="2">
-        <f t="shared" ref="B502:B507" si="52">B503</f>
-        <v>5.46</v>
+        <f t="shared" si="52"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.25">
@@ -4878,7 +4882,7 @@
       </c>
       <c r="B503" s="2">
         <f t="shared" si="52"/>
-        <v>5.46</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.25">
@@ -4887,7 +4891,7 @@
       </c>
       <c r="B504" s="2">
         <f t="shared" si="52"/>
-        <v>5.46</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -4896,7 +4900,7 @@
       </c>
       <c r="B505" s="2">
         <f t="shared" si="52"/>
-        <v>5.46</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.25">
@@ -4905,24 +4909,24 @@
       </c>
       <c r="B506" s="2">
         <f t="shared" si="52"/>
-        <v>5.46</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>45067</v>
       </c>
-      <c r="B507" s="2">
-        <f t="shared" si="52"/>
-        <v>5.46</v>
+      <c r="B507" s="4">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>45068</v>
       </c>
-      <c r="B508">
-        <v>5.46</v>
+      <c r="B508" s="2">
+        <f t="shared" ref="B508:B514" si="53">B509</f>
+        <v>8.32</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.25">
@@ -4930,8 +4934,8 @@
         <v>45069</v>
       </c>
       <c r="B509" s="2">
-        <f t="shared" ref="B509:B514" si="53">B510</f>
-        <v>5.79</v>
+        <f t="shared" si="53"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -4940,7 +4944,7 @@
       </c>
       <c r="B510" s="2">
         <f t="shared" si="53"/>
-        <v>5.79</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.25">
@@ -4949,7 +4953,7 @@
       </c>
       <c r="B511" s="2">
         <f t="shared" si="53"/>
-        <v>5.79</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +4962,7 @@
       </c>
       <c r="B512" s="2">
         <f t="shared" si="53"/>
-        <v>5.79</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.25">
@@ -4967,7 +4971,7 @@
       </c>
       <c r="B513" s="2">
         <f t="shared" si="53"/>
-        <v>5.79</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.25">
@@ -4975,16 +4979,16 @@
         <v>45074</v>
       </c>
       <c r="B514" s="2">
-        <f t="shared" si="53"/>
-        <v>5.79</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>45075</v>
       </c>
-      <c r="B515">
-        <v>5.79</v>
+      <c r="B515" s="2">
+        <f t="shared" ref="B515:B516" si="54">B516</f>
+        <v>8.32</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -4992,16 +4996,16 @@
         <v>45076</v>
       </c>
       <c r="B516" s="2">
-        <f t="shared" ref="B516" si="54">B517</f>
-        <v>5.65</v>
+        <f t="shared" si="54"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>45077</v>
       </c>
-      <c r="B517">
-        <v>5.65</v>
+      <c r="B517" s="3">
+        <v>8.32</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -5010,7 +5014,7 @@
       </c>
       <c r="B518" s="2">
         <f t="shared" ref="B518:B521" si="55">B519</f>
-        <v>5.71</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -5019,7 +5023,7 @@
       </c>
       <c r="B519" s="2">
         <f t="shared" si="55"/>
-        <v>5.71</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.25">
@@ -5028,24 +5032,24 @@
       </c>
       <c r="B520" s="2">
         <f t="shared" si="55"/>
-        <v>5.71</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>45081</v>
       </c>
-      <c r="B521" s="2">
-        <f t="shared" si="55"/>
-        <v>5.71</v>
+      <c r="B521" s="4">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>45082</v>
       </c>
-      <c r="B522">
-        <v>5.71</v>
+      <c r="B522" s="2">
+        <f t="shared" ref="B522:B528" si="56">B523</f>
+        <v>8.33</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,8 +5057,8 @@
         <v>45083</v>
       </c>
       <c r="B523" s="2">
-        <f t="shared" ref="B523:B528" si="56">B524</f>
-        <v>5.75</v>
+        <f t="shared" si="56"/>
+        <v>8.33</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -5063,7 +5067,7 @@
       </c>
       <c r="B524" s="2">
         <f t="shared" si="56"/>
-        <v>5.75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -5072,7 +5076,7 @@
       </c>
       <c r="B525" s="2">
         <f t="shared" si="56"/>
-        <v>5.75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.25">
@@ -5081,7 +5085,7 @@
       </c>
       <c r="B526" s="2">
         <f t="shared" si="56"/>
-        <v>5.75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -5090,24 +5094,24 @@
       </c>
       <c r="B527" s="2">
         <f t="shared" si="56"/>
-        <v>5.75</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>45088</v>
       </c>
-      <c r="B528" s="2">
-        <f t="shared" si="56"/>
-        <v>5.75</v>
+      <c r="B528" s="4">
+        <v>8.33</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>45089</v>
       </c>
-      <c r="B529">
-        <v>5.75</v>
+      <c r="B529" s="2">
+        <f t="shared" ref="B529:B535" si="57">B530</f>
+        <v>3.99</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.25">
@@ -5115,8 +5119,8 @@
         <v>45090</v>
       </c>
       <c r="B530" s="2">
-        <f t="shared" ref="B530:B535" si="57">B531</f>
-        <v>8.34</v>
+        <f t="shared" si="57"/>
+        <v>3.99</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.25">
@@ -5125,7 +5129,7 @@
       </c>
       <c r="B531" s="2">
         <f t="shared" si="57"/>
-        <v>8.34</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.25">
@@ -5134,7 +5138,7 @@
       </c>
       <c r="B532" s="2">
         <f t="shared" si="57"/>
-        <v>8.34</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.25">
@@ -5143,7 +5147,7 @@
       </c>
       <c r="B533" s="2">
         <f t="shared" si="57"/>
-        <v>8.34</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -5152,24 +5156,24 @@
       </c>
       <c r="B534" s="2">
         <f t="shared" si="57"/>
-        <v>8.34</v>
+        <v>3.99</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>45095</v>
       </c>
-      <c r="B535" s="2">
-        <f t="shared" si="57"/>
-        <v>8.34</v>
+      <c r="B535" s="4">
+        <v>3.99</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>45096</v>
       </c>
-      <c r="B536">
-        <v>8.34</v>
+      <c r="B536" s="2">
+        <f t="shared" ref="B536:B545" si="58">B537</f>
+        <v>7.41</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -5177,8 +5181,8 @@
         <v>45097</v>
       </c>
       <c r="B537" s="2">
-        <f t="shared" ref="B537:B542" si="58">B538</f>
-        <v>6.72</v>
+        <f t="shared" si="58"/>
+        <v>7.41</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -5187,7 +5191,7 @@
       </c>
       <c r="B538" s="2">
         <f t="shared" si="58"/>
-        <v>6.72</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -5196,7 +5200,7 @@
       </c>
       <c r="B539" s="2">
         <f t="shared" si="58"/>
-        <v>6.72</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.25">
@@ -5205,7 +5209,7 @@
       </c>
       <c r="B540" s="2">
         <f t="shared" si="58"/>
-        <v>6.72</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -5214,7 +5218,7 @@
       </c>
       <c r="B541" s="2">
         <f t="shared" si="58"/>
-        <v>6.72</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -5223,15 +5227,16 @@
       </c>
       <c r="B542" s="2">
         <f t="shared" si="58"/>
-        <v>6.72</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>45103</v>
       </c>
-      <c r="B543">
-        <v>6.72</v>
+      <c r="B543" s="2">
+        <f t="shared" si="58"/>
+        <v>7.41</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.25">
@@ -5239,8 +5244,8 @@
         <v>45104</v>
       </c>
       <c r="B544" s="2">
-        <f t="shared" ref="B544:B546" si="59">B545</f>
-        <v>6.21</v>
+        <f t="shared" si="58"/>
+        <v>7.41</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -5248,8 +5253,8 @@
         <v>45105</v>
       </c>
       <c r="B545" s="2">
-        <f t="shared" si="59"/>
-        <v>6.21</v>
+        <f t="shared" si="58"/>
+        <v>7.41</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.25">
@@ -5257,16 +5262,16 @@
         <v>45106</v>
       </c>
       <c r="B546" s="2">
-        <f t="shared" si="59"/>
-        <v>6.21</v>
+        <f t="shared" ref="B544:B546" si="59">B547</f>
+        <v>7.41</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>45107</v>
       </c>
-      <c r="B547">
-        <v>6.21</v>
+      <c r="B547" s="3">
+        <v>7.41</v>
       </c>
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.25">
@@ -5274,8 +5279,8 @@
         <v>45108</v>
       </c>
       <c r="B548" s="2">
-        <f t="shared" ref="B548:B549" si="60">B549</f>
-        <v>8.34</v>
+        <f t="shared" ref="B548:B561" si="60">B549</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -5284,15 +5289,16 @@
       </c>
       <c r="B549" s="2">
         <f t="shared" si="60"/>
-        <v>8.34</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>45110</v>
       </c>
-      <c r="B550">
-        <v>8.34</v>
+      <c r="B550" s="2">
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,8 +5306,8 @@
         <v>45111</v>
       </c>
       <c r="B551" s="2">
-        <f t="shared" ref="B551:B556" si="61">B552</f>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,8 +5315,8 @@
         <v>45112</v>
       </c>
       <c r="B552" s="2">
-        <f t="shared" si="61"/>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,8 +5324,8 @@
         <v>45113</v>
       </c>
       <c r="B553" s="2">
-        <f t="shared" si="61"/>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,8 +5333,8 @@
         <v>45114</v>
       </c>
       <c r="B554" s="2">
-        <f t="shared" si="61"/>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,8 +5342,8 @@
         <v>45115</v>
       </c>
       <c r="B555" s="2">
-        <f t="shared" si="61"/>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.25">
@@ -5345,16 +5351,17 @@
         <v>45116</v>
       </c>
       <c r="B556" s="2">
-        <f t="shared" si="61"/>
-        <v>6.05</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>45117</v>
       </c>
-      <c r="B557">
-        <v>6.05</v>
+      <c r="B557" s="2">
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -5362,8 +5369,8 @@
         <v>45118</v>
       </c>
       <c r="B558" s="2">
-        <f t="shared" ref="B558:B570" si="62">B559</f>
-        <v>5.64</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.25">
@@ -5371,8 +5378,8 @@
         <v>45119</v>
       </c>
       <c r="B559" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -5380,8 +5387,8 @@
         <v>45120</v>
       </c>
       <c r="B560" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,8 +5396,8 @@
         <v>45121</v>
       </c>
       <c r="B561" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+        <f t="shared" si="60"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -5398,17 +5405,16 @@
         <v>45122</v>
       </c>
       <c r="B562" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+        <f t="shared" ref="B558:B570" si="61">B563</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>45123</v>
       </c>
-      <c r="B563" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+      <c r="B563" s="4">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.25">
@@ -5416,8 +5422,8 @@
         <v>45124</v>
       </c>
       <c r="B564" s="2">
-        <f t="shared" si="62"/>
-        <v>5.64</v>
+        <f t="shared" ref="B564:B575" si="62">B565</f>
+        <v>8.65</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +5432,7 @@
       </c>
       <c r="B565" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5441,7 @@
       </c>
       <c r="B566" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5450,7 @@
       </c>
       <c r="B567" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5459,7 @@
       </c>
       <c r="B568" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5468,7 @@
       </c>
       <c r="B569" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,15 +5477,16 @@
       </c>
       <c r="B570" s="2">
         <f t="shared" si="62"/>
-        <v>5.64</v>
+        <v>8.65</v>
       </c>
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>45131</v>
       </c>
-      <c r="B571">
-        <v>5.64</v>
+      <c r="B571" s="2">
+        <f t="shared" si="62"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.25">
@@ -5487,8 +5494,8 @@
         <v>45132</v>
       </c>
       <c r="B572" s="2">
-        <f t="shared" ref="B572:B577" si="63">B573</f>
-        <v>5.97</v>
+        <f t="shared" si="62"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,8 +5503,8 @@
         <v>45133</v>
       </c>
       <c r="B573" s="2">
-        <f t="shared" si="63"/>
-        <v>5.97</v>
+        <f t="shared" si="62"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.25">
@@ -5505,8 +5512,8 @@
         <v>45134</v>
       </c>
       <c r="B574" s="2">
-        <f t="shared" si="63"/>
-        <v>5.97</v>
+        <f t="shared" si="62"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -5514,8 +5521,8 @@
         <v>45135</v>
       </c>
       <c r="B575" s="2">
-        <f t="shared" si="63"/>
-        <v>5.97</v>
+        <f t="shared" si="62"/>
+        <v>8.65</v>
       </c>
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.25">
@@ -5523,25 +5530,25 @@
         <v>45136</v>
       </c>
       <c r="B576" s="2">
-        <f t="shared" si="63"/>
-        <v>5.97</v>
+        <f t="shared" ref="B572:B577" si="63">B577</f>
+        <v>8.65</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>45137</v>
       </c>
-      <c r="B577" s="2">
-        <f t="shared" si="63"/>
-        <v>5.97</v>
+      <c r="B577" s="4">
+        <v>8.65</v>
       </c>
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>45138</v>
       </c>
-      <c r="B578">
-        <v>5.97</v>
+      <c r="B578" s="2">
+        <f t="shared" ref="B578:B589" si="64">B579</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.25">
@@ -5549,8 +5556,8 @@
         <v>45139</v>
       </c>
       <c r="B579" s="2">
-        <f t="shared" ref="B579:B584" si="64">B580</f>
-        <v>3.39</v>
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -5559,7 +5566,7 @@
       </c>
       <c r="B580" s="2">
         <f t="shared" si="64"/>
-        <v>3.39</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5575,7 @@
       </c>
       <c r="B581" s="2">
         <f t="shared" si="64"/>
-        <v>3.39</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.25">
@@ -5577,7 +5584,7 @@
       </c>
       <c r="B582" s="2">
         <f t="shared" si="64"/>
-        <v>3.39</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -5586,7 +5593,7 @@
       </c>
       <c r="B583" s="2">
         <f t="shared" si="64"/>
-        <v>3.39</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -5595,15 +5602,16 @@
       </c>
       <c r="B584" s="2">
         <f t="shared" si="64"/>
-        <v>3.39</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>45145</v>
       </c>
-      <c r="B585">
-        <v>3.39</v>
+      <c r="B585" s="2">
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.25">
@@ -5611,8 +5619,8 @@
         <v>45146</v>
       </c>
       <c r="B586" s="2">
-        <f t="shared" ref="B586:B591" si="65">B587</f>
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -5620,8 +5628,8 @@
         <v>45147</v>
       </c>
       <c r="B587" s="2">
-        <f t="shared" si="65"/>
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -5629,8 +5637,8 @@
         <v>45148</v>
       </c>
       <c r="B588" s="2">
-        <f t="shared" si="65"/>
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -5638,8 +5646,8 @@
         <v>45149</v>
       </c>
       <c r="B589" s="2">
-        <f t="shared" si="65"/>
-        <v>3</v>
+        <f t="shared" si="64"/>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -5647,25 +5655,25 @@
         <v>45150</v>
       </c>
       <c r="B590" s="2">
-        <f t="shared" si="65"/>
-        <v>3</v>
+        <f t="shared" ref="B586:B591" si="65">B591</f>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>45151</v>
       </c>
-      <c r="B591" s="2">
-        <f t="shared" si="65"/>
-        <v>3</v>
+      <c r="B591" s="4">
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>45152</v>
       </c>
-      <c r="B592">
-        <v>3</v>
+      <c r="B592" s="2">
+        <f t="shared" ref="B592:B605" si="66">B593</f>
+        <v>5.12</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -5673,8 +5681,8 @@
         <v>45153</v>
       </c>
       <c r="B593" s="2">
-        <f t="shared" ref="B593:B605" si="66">B594</f>
-        <v>5.1100000000000003</v>
+        <f t="shared" si="66"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.25">
@@ -5683,7 +5691,7 @@
       </c>
       <c r="B594" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -5692,7 +5700,7 @@
       </c>
       <c r="B595" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -5701,7 +5709,7 @@
       </c>
       <c r="B596" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -5710,7 +5718,7 @@
       </c>
       <c r="B597" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.25">
@@ -5719,7 +5727,7 @@
       </c>
       <c r="B598" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -5728,7 +5736,7 @@
       </c>
       <c r="B599" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -5737,7 +5745,7 @@
       </c>
       <c r="B600" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -5746,7 +5754,7 @@
       </c>
       <c r="B601" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -5755,7 +5763,7 @@
       </c>
       <c r="B602" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.25">
@@ -5764,7 +5772,7 @@
       </c>
       <c r="B603" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.25">
@@ -5773,24 +5781,24 @@
       </c>
       <c r="B604" s="2">
         <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>45165</v>
       </c>
-      <c r="B605" s="2">
-        <f t="shared" si="66"/>
-        <v>5.1100000000000003</v>
+      <c r="B605" s="4">
+        <v>5.12</v>
       </c>
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>45166</v>
       </c>
-      <c r="B606">
-        <v>5.1100000000000003</v>
+      <c r="B606" s="2">
+        <f t="shared" ref="B606:B613" si="67">B607</f>
+        <v>5.12</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -5798,8 +5806,8 @@
         <v>45167</v>
       </c>
       <c r="B607" s="2">
-        <f t="shared" ref="B607:B608" si="67">B608</f>
-        <v>5.56</v>
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -5808,15 +5816,16 @@
       </c>
       <c r="B608" s="2">
         <f t="shared" si="67"/>
-        <v>5.56</v>
+        <v>5.12</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>45169</v>
       </c>
-      <c r="B609">
-        <v>5.56</v>
+      <c r="B609" s="2">
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.25">
@@ -5824,8 +5833,8 @@
         <v>45170</v>
       </c>
       <c r="B610" s="2">
-        <f t="shared" ref="B610:B612" si="68">B611</f>
-        <v>5.65</v>
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.25">
@@ -5833,8 +5842,8 @@
         <v>45171</v>
       </c>
       <c r="B611" s="2">
-        <f t="shared" si="68"/>
-        <v>5.65</v>
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.25">
@@ -5842,16 +5851,17 @@
         <v>45172</v>
       </c>
       <c r="B612" s="2">
-        <f t="shared" si="68"/>
-        <v>5.65</v>
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>45173</v>
       </c>
-      <c r="B613">
-        <v>5.65</v>
+      <c r="B613" s="2">
+        <f t="shared" si="67"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -5859,8 +5869,8 @@
         <v>45174</v>
       </c>
       <c r="B614" s="2">
-        <f t="shared" ref="B614:B619" si="69">B615</f>
-        <v>7.77</v>
+        <f t="shared" ref="B614:B619" si="68">B615</f>
+        <v>5.12</v>
       </c>
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.25">
@@ -5868,8 +5878,8 @@
         <v>45175</v>
       </c>
       <c r="B615" s="2">
-        <f t="shared" si="69"/>
-        <v>7.77</v>
+        <f t="shared" si="68"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -5877,8 +5887,8 @@
         <v>45176</v>
       </c>
       <c r="B616" s="2">
-        <f t="shared" si="69"/>
-        <v>7.77</v>
+        <f t="shared" si="68"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.25">
@@ -5886,8 +5896,8 @@
         <v>45177</v>
       </c>
       <c r="B617" s="2">
-        <f t="shared" si="69"/>
-        <v>7.77</v>
+        <f t="shared" si="68"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -5895,25 +5905,25 @@
         <v>45178</v>
       </c>
       <c r="B618" s="2">
-        <f t="shared" si="69"/>
-        <v>7.77</v>
+        <f t="shared" si="68"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>45179</v>
       </c>
-      <c r="B619" s="2">
-        <f t="shared" si="69"/>
-        <v>7.77</v>
+      <c r="B619" s="4">
+        <v>5.12</v>
       </c>
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>45180</v>
       </c>
-      <c r="B620">
-        <v>7.77</v>
+      <c r="B620" s="2">
+        <f t="shared" ref="B620:B626" si="69">B621</f>
+        <v>5.12</v>
       </c>
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.25">
@@ -5921,8 +5931,8 @@
         <v>45181</v>
       </c>
       <c r="B621" s="2">
-        <f t="shared" ref="B621:B626" si="70">B622</f>
-        <v>8.31</v>
+        <f t="shared" si="69"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -5930,8 +5940,8 @@
         <v>45182</v>
       </c>
       <c r="B622" s="2">
-        <f t="shared" si="70"/>
-        <v>8.31</v>
+        <f t="shared" si="69"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -5939,8 +5949,8 @@
         <v>45183</v>
       </c>
       <c r="B623" s="2">
-        <f t="shared" si="70"/>
-        <v>8.31</v>
+        <f t="shared" si="69"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -5948,8 +5958,8 @@
         <v>45184</v>
       </c>
       <c r="B624" s="2">
-        <f t="shared" si="70"/>
-        <v>8.31</v>
+        <f t="shared" si="69"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.25">
@@ -5957,25 +5967,25 @@
         <v>45185</v>
       </c>
       <c r="B625" s="2">
-        <f t="shared" si="70"/>
-        <v>8.31</v>
+        <f t="shared" si="69"/>
+        <v>5.12</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>45186</v>
       </c>
-      <c r="B626" s="2">
-        <f t="shared" si="70"/>
-        <v>8.31</v>
+      <c r="B626" s="4">
+        <v>5.12</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>45187</v>
       </c>
-      <c r="B627">
-        <v>8.31</v>
+      <c r="B627" s="2">
+        <f t="shared" ref="B627:B633" si="70">B628</f>
+        <v>5.82</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.25">
@@ -5983,8 +5993,8 @@
         <v>45188</v>
       </c>
       <c r="B628" s="2">
-        <f t="shared" ref="B628:B633" si="71">B629</f>
-        <v>5.64</v>
+        <f t="shared" si="70"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -5992,8 +6002,8 @@
         <v>45189</v>
       </c>
       <c r="B629" s="2">
-        <f t="shared" si="71"/>
-        <v>5.64</v>
+        <f t="shared" si="70"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.25">
@@ -6001,8 +6011,8 @@
         <v>45190</v>
       </c>
       <c r="B630" s="2">
-        <f t="shared" si="71"/>
-        <v>5.64</v>
+        <f t="shared" si="70"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
@@ -6010,8 +6020,8 @@
         <v>45191</v>
       </c>
       <c r="B631" s="2">
-        <f t="shared" si="71"/>
-        <v>5.64</v>
+        <f t="shared" si="70"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,25 +6029,25 @@
         <v>45192</v>
       </c>
       <c r="B632" s="2">
-        <f t="shared" si="71"/>
-        <v>5.64</v>
+        <f t="shared" si="70"/>
+        <v>5.82</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>45193</v>
       </c>
-      <c r="B633" s="2">
-        <f t="shared" si="71"/>
-        <v>5.64</v>
+      <c r="B633" s="4">
+        <v>5.82</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>45194</v>
       </c>
-      <c r="B634">
-        <v>5.64</v>
+      <c r="B634" s="2">
+        <f t="shared" ref="B634:B638" si="71">B635</f>
+        <v>7.47</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -6045,8 +6055,8 @@
         <v>45195</v>
       </c>
       <c r="B635" s="2">
-        <f t="shared" ref="B635:B638" si="72">B636</f>
-        <v>7.28</v>
+        <f t="shared" si="71"/>
+        <v>7.47</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -6054,8 +6064,8 @@
         <v>45196</v>
       </c>
       <c r="B636" s="2">
-        <f t="shared" si="72"/>
-        <v>7.28</v>
+        <f t="shared" si="71"/>
+        <v>7.47</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -6063,8 +6073,8 @@
         <v>45197</v>
       </c>
       <c r="B637" s="2">
-        <f t="shared" si="72"/>
-        <v>7.28</v>
+        <f t="shared" si="71"/>
+        <v>7.47</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -6072,16 +6082,16 @@
         <v>45198</v>
       </c>
       <c r="B638" s="2">
-        <f t="shared" si="72"/>
-        <v>7.28</v>
+        <f t="shared" si="71"/>
+        <v>7.47</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>45199</v>
       </c>
-      <c r="B639">
-        <v>7.28</v>
+      <c r="B639" s="3">
+        <v>7.47</v>
       </c>
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.25">
@@ -6089,8 +6099,8 @@
         <v>45200</v>
       </c>
       <c r="B640" s="2">
-        <f t="shared" ref="B640:B647" si="73">B641</f>
-        <v>7.77</v>
+        <f t="shared" ref="B640:B647" si="72">B641</f>
+        <v>8.32</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -6098,8 +6108,8 @@
         <v>45201</v>
       </c>
       <c r="B641" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -6107,8 +6117,8 @@
         <v>45202</v>
       </c>
       <c r="B642" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -6116,8 +6126,8 @@
         <v>45203</v>
       </c>
       <c r="B643" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,8 +6135,8 @@
         <v>45204</v>
       </c>
       <c r="B644" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.25">
@@ -6134,8 +6144,8 @@
         <v>45205</v>
       </c>
       <c r="B645" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.25">
@@ -6143,25 +6153,25 @@
         <v>45206</v>
       </c>
       <c r="B646" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+        <f t="shared" si="72"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>45207</v>
       </c>
-      <c r="B647" s="2">
-        <f t="shared" si="73"/>
-        <v>7.77</v>
+      <c r="B647" s="4">
+        <v>8.32</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>45208</v>
       </c>
-      <c r="B648">
-        <v>7.77</v>
+      <c r="B648" s="2">
+        <f t="shared" ref="B648:B661" si="73">B649</f>
+        <v>8.31</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -6169,8 +6179,8 @@
         <v>45209</v>
       </c>
       <c r="B649" s="2">
-        <f t="shared" ref="B649:B661" si="74">B650</f>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.25">
@@ -6178,8 +6188,8 @@
         <v>45210</v>
       </c>
       <c r="B650" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -6187,8 +6197,8 @@
         <v>45211</v>
       </c>
       <c r="B651" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.25">
@@ -6196,8 +6206,8 @@
         <v>45212</v>
       </c>
       <c r="B652" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -6205,17 +6215,16 @@
         <v>45213</v>
       </c>
       <c r="B653" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>45214</v>
       </c>
-      <c r="B654" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+      <c r="B654" s="4">
+        <v>8.31</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -6223,8 +6232,8 @@
         <v>45215</v>
       </c>
       <c r="B655" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -6232,8 +6241,8 @@
         <v>45216</v>
       </c>
       <c r="B656" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.25">
@@ -6241,8 +6250,8 @@
         <v>45217</v>
       </c>
       <c r="B657" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.25">
@@ -6250,8 +6259,8 @@
         <v>45218</v>
       </c>
       <c r="B658" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.25">
@@ -6259,8 +6268,8 @@
         <v>45219</v>
       </c>
       <c r="B659" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.25">
@@ -6268,25 +6277,25 @@
         <v>45220</v>
       </c>
       <c r="B660" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+        <f t="shared" si="73"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>45221</v>
       </c>
-      <c r="B661" s="2">
-        <f t="shared" si="74"/>
-        <v>6.75</v>
+      <c r="B661" s="4">
+        <v>8.31</v>
       </c>
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>45222</v>
       </c>
-      <c r="B662">
-        <v>6.75</v>
+      <c r="B662" s="2">
+        <f t="shared" ref="B662:B669" si="74">B663</f>
+        <v>8.32</v>
       </c>
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.25">
@@ -6294,8 +6303,8 @@
         <v>45223</v>
       </c>
       <c r="B663" s="2">
-        <f t="shared" ref="B663:B668" si="75">B664</f>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.25">
@@ -6303,8 +6312,8 @@
         <v>45224</v>
       </c>
       <c r="B664" s="2">
-        <f t="shared" si="75"/>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,8 +6321,8 @@
         <v>45225</v>
       </c>
       <c r="B665" s="2">
-        <f t="shared" si="75"/>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.25">
@@ -6321,8 +6330,8 @@
         <v>45226</v>
       </c>
       <c r="B666" s="2">
-        <f t="shared" si="75"/>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.25">
@@ -6330,8 +6339,8 @@
         <v>45227</v>
       </c>
       <c r="B667" s="2">
-        <f t="shared" si="75"/>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.25">
@@ -6339,24 +6348,25 @@
         <v>45228</v>
       </c>
       <c r="B668" s="2">
-        <f t="shared" si="75"/>
-        <v>5.24</v>
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>45229</v>
       </c>
-      <c r="B669">
-        <v>5.24</v>
+      <c r="B669" s="5">
+        <f t="shared" si="74"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>45230</v>
       </c>
-      <c r="B670">
-        <v>5.13</v>
+      <c r="B670" s="6">
+        <v>8.32</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -6364,8 +6374,8 @@
         <v>45231</v>
       </c>
       <c r="B671" s="2">
-        <f t="shared" ref="B671:B675" si="76">B672</f>
-        <v>5.13</v>
+        <f t="shared" ref="B671:B675" si="75">B672</f>
+        <v>8.31</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -6373,8 +6383,8 @@
         <v>45232</v>
       </c>
       <c r="B672" s="2">
-        <f t="shared" si="76"/>
-        <v>5.13</v>
+        <f t="shared" si="75"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -6382,8 +6392,8 @@
         <v>45233</v>
       </c>
       <c r="B673" s="2">
-        <f t="shared" si="76"/>
-        <v>5.13</v>
+        <f t="shared" si="75"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.25">
@@ -6391,8 +6401,8 @@
         <v>45234</v>
       </c>
       <c r="B674" s="2">
-        <f t="shared" si="76"/>
-        <v>5.13</v>
+        <f t="shared" si="75"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.25">
@@ -6400,16 +6410,17 @@
         <v>45235</v>
       </c>
       <c r="B675" s="2">
-        <f t="shared" si="76"/>
-        <v>5.13</v>
+        <f t="shared" si="75"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>45236</v>
       </c>
-      <c r="B676">
-        <v>5.13</v>
+      <c r="B676" s="2">
+        <f t="shared" ref="B676:B689" si="76">B677</f>
+        <v>8.31</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -6417,8 +6428,8 @@
         <v>45237</v>
       </c>
       <c r="B677" s="2">
-        <f t="shared" ref="B677:B689" si="77">B678</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -6426,8 +6437,8 @@
         <v>45238</v>
       </c>
       <c r="B678" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -6435,8 +6446,8 @@
         <v>45239</v>
       </c>
       <c r="B679" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -6444,8 +6455,8 @@
         <v>45240</v>
       </c>
       <c r="B680" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -6453,17 +6464,16 @@
         <v>45241</v>
       </c>
       <c r="B681" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>45242</v>
       </c>
-      <c r="B682" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+      <c r="B682" s="4">
+        <v>8.31</v>
       </c>
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.25">
@@ -6471,8 +6481,8 @@
         <v>45243</v>
       </c>
       <c r="B683" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.25">
@@ -6480,8 +6490,8 @@
         <v>45244</v>
       </c>
       <c r="B684" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -6489,8 +6499,8 @@
         <v>45245</v>
       </c>
       <c r="B685" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -6498,8 +6508,8 @@
         <v>45246</v>
       </c>
       <c r="B686" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.25">
@@ -6507,8 +6517,8 @@
         <v>45247</v>
       </c>
       <c r="B687" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.25">
@@ -6516,25 +6526,25 @@
         <v>45248</v>
       </c>
       <c r="B688" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="76"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>45249</v>
       </c>
-      <c r="B689" s="2">
-        <f t="shared" si="77"/>
-        <v>8.3000000000000007</v>
+      <c r="B689" s="4">
+        <v>8.31</v>
       </c>
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>45250</v>
       </c>
-      <c r="B690">
-        <v>8.3000000000000007</v>
+      <c r="B690" s="2">
+        <f t="shared" ref="B690:B696" si="77">B691</f>
+        <v>4.78</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -6542,8 +6552,8 @@
         <v>45251</v>
       </c>
       <c r="B691" s="2">
-        <f t="shared" ref="B691:B696" si="78">B692</f>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="77"/>
+        <v>4.78</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -6551,8 +6561,8 @@
         <v>45252</v>
       </c>
       <c r="B692" s="2">
-        <f t="shared" si="78"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="77"/>
+        <v>4.78</v>
       </c>
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.25">
@@ -6560,8 +6570,8 @@
         <v>45253</v>
       </c>
       <c r="B693" s="2">
-        <f t="shared" si="78"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="77"/>
+        <v>4.78</v>
       </c>
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.25">
@@ -6569,8 +6579,8 @@
         <v>45254</v>
       </c>
       <c r="B694" s="2">
-        <f t="shared" si="78"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="77"/>
+        <v>4.78</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -6578,25 +6588,25 @@
         <v>45255</v>
       </c>
       <c r="B695" s="2">
-        <f t="shared" si="78"/>
-        <v>8.3000000000000007</v>
+        <f t="shared" si="77"/>
+        <v>4.78</v>
       </c>
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>45256</v>
       </c>
-      <c r="B696" s="2">
-        <f t="shared" si="78"/>
-        <v>8.3000000000000007</v>
+      <c r="B696" s="4">
+        <v>4.78</v>
       </c>
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>45257</v>
       </c>
-      <c r="B697">
-        <v>8.3000000000000007</v>
+      <c r="B697" s="2">
+        <f t="shared" ref="B697:B717" si="78">B698</f>
+        <v>6.77</v>
       </c>
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.25">
@@ -6604,8 +6614,8 @@
         <v>45258</v>
       </c>
       <c r="B698" s="2">
-        <f t="shared" ref="B698:B717" si="79">B699</f>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.77</v>
       </c>
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.25">
@@ -6613,17 +6623,16 @@
         <v>45259</v>
       </c>
       <c r="B699" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.77</v>
       </c>
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>45260</v>
       </c>
-      <c r="B700" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+      <c r="B700" s="4">
+        <v>6.77</v>
       </c>
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.25">
@@ -6631,8 +6640,8 @@
         <v>45261</v>
       </c>
       <c r="B701" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -6640,17 +6649,16 @@
         <v>45262</v>
       </c>
       <c r="B702" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.32</v>
       </c>
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>45263</v>
       </c>
-      <c r="B703" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+      <c r="B703" s="4">
+        <v>8.32</v>
       </c>
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.25">
@@ -6658,8 +6666,8 @@
         <v>45264</v>
       </c>
       <c r="B704" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -6667,8 +6675,8 @@
         <v>45265</v>
       </c>
       <c r="B705" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -6676,8 +6684,8 @@
         <v>45266</v>
       </c>
       <c r="B706" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,8 +6693,8 @@
         <v>45267</v>
       </c>
       <c r="B707" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,8 +6702,8 @@
         <v>45268</v>
       </c>
       <c r="B708" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,17 +6711,16 @@
         <v>45269</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>8.31</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>45270</v>
       </c>
-      <c r="B710" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+      <c r="B710" s="4">
+        <v>8.31</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,8 +6728,8 @@
         <v>45271</v>
       </c>
       <c r="B711" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -6730,8 +6737,8 @@
         <v>45272</v>
       </c>
       <c r="B712" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -6739,8 +6746,8 @@
         <v>45273</v>
       </c>
       <c r="B713" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,8 +6755,8 @@
         <v>45274</v>
       </c>
       <c r="B714" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,8 +6764,8 @@
         <v>45275</v>
       </c>
       <c r="B715" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.25">
@@ -6766,25 +6773,25 @@
         <v>45276</v>
       </c>
       <c r="B716" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+        <f t="shared" si="78"/>
+        <v>6.6</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>45277</v>
       </c>
-      <c r="B717" s="2">
-        <f t="shared" si="79"/>
-        <v>8.86</v>
+      <c r="B717" s="4">
+        <v>6.6</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>45278</v>
       </c>
-      <c r="B718">
-        <v>8.86</v>
+      <c r="B718" s="2">
+        <f t="shared" ref="B718:B724" si="79">B719</f>
+        <v>6.73</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -6792,8 +6799,8 @@
         <v>45279</v>
       </c>
       <c r="B719" s="2">
-        <f t="shared" ref="B719:B724" si="80">B720</f>
-        <v>8.65</v>
+        <f t="shared" si="79"/>
+        <v>6.73</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -6801,8 +6808,8 @@
         <v>45280</v>
       </c>
       <c r="B720" s="2">
-        <f t="shared" si="80"/>
-        <v>8.65</v>
+        <f t="shared" si="79"/>
+        <v>6.73</v>
       </c>
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.25">
@@ -6810,8 +6817,8 @@
         <v>45281</v>
       </c>
       <c r="B721" s="2">
-        <f t="shared" si="80"/>
-        <v>8.65</v>
+        <f t="shared" si="79"/>
+        <v>6.73</v>
       </c>
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.25">
@@ -6819,8 +6826,8 @@
         <v>45282</v>
       </c>
       <c r="B722" s="2">
-        <f t="shared" si="80"/>
-        <v>8.65</v>
+        <f t="shared" si="79"/>
+        <v>6.73</v>
       </c>
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.25">
@@ -6828,25 +6835,25 @@
         <v>45283</v>
       </c>
       <c r="B723" s="2">
-        <f t="shared" si="80"/>
-        <v>8.65</v>
+        <f t="shared" si="79"/>
+        <v>6.73</v>
       </c>
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>45284</v>
       </c>
-      <c r="B724" s="2">
-        <f t="shared" si="80"/>
-        <v>8.65</v>
+      <c r="B724" s="4">
+        <v>6.73</v>
       </c>
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>45285</v>
       </c>
-      <c r="B725">
-        <v>8.65</v>
+      <c r="B725" s="2">
+        <f t="shared" ref="B725:B730" si="80">B726</f>
+        <v>7</v>
       </c>
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.25">
@@ -6854,8 +6861,8 @@
         <v>45286</v>
       </c>
       <c r="B726" s="2">
-        <f t="shared" ref="B726:B730" si="81">B727</f>
-        <v>6.06</v>
+        <f t="shared" si="80"/>
+        <v>7</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -6863,8 +6870,8 @@
         <v>45287</v>
       </c>
       <c r="B727" s="2">
-        <f t="shared" si="81"/>
-        <v>6.06</v>
+        <f t="shared" si="80"/>
+        <v>7</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -6872,8 +6879,8 @@
         <v>45288</v>
       </c>
       <c r="B728" s="2">
-        <f t="shared" si="81"/>
-        <v>6.06</v>
+        <f t="shared" si="80"/>
+        <v>7</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.25">
@@ -6881,8 +6888,8 @@
         <v>45289</v>
       </c>
       <c r="B729" s="2">
-        <f t="shared" si="81"/>
-        <v>6.06</v>
+        <f t="shared" si="80"/>
+        <v>7</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -6890,16 +6897,16 @@
         <v>45290</v>
       </c>
       <c r="B730" s="2">
-        <f t="shared" si="81"/>
-        <v>6.06</v>
+        <f t="shared" si="80"/>
+        <v>7</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>45291</v>
       </c>
-      <c r="B731">
-        <v>6.06</v>
+      <c r="B731" s="3">
+        <v>7</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -6907,7 +6914,7 @@
         <v>45292</v>
       </c>
       <c r="B732" s="2">
-        <f t="shared" ref="B732:B744" si="82">B733</f>
+        <f t="shared" ref="B732:B744" si="81">B733</f>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6916,7 +6923,7 @@
         <v>45293</v>
       </c>
       <c r="B733" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6925,7 +6932,7 @@
         <v>45294</v>
       </c>
       <c r="B734" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6934,7 +6941,7 @@
         <v>45295</v>
       </c>
       <c r="B735" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6943,7 +6950,7 @@
         <v>45296</v>
       </c>
       <c r="B736" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6952,7 +6959,7 @@
         <v>45297</v>
       </c>
       <c r="B737" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6961,7 +6968,7 @@
         <v>45298</v>
       </c>
       <c r="B738" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6970,7 +6977,7 @@
         <v>45299</v>
       </c>
       <c r="B739" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6979,7 +6986,7 @@
         <v>45300</v>
       </c>
       <c r="B740" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6988,7 +6995,7 @@
         <v>45301</v>
       </c>
       <c r="B741" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -6997,7 +7004,7 @@
         <v>45302</v>
       </c>
       <c r="B742" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -7006,7 +7013,7 @@
         <v>45303</v>
       </c>
       <c r="B743" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -7015,7 +7022,7 @@
         <v>45304</v>
       </c>
       <c r="B744" s="2">
-        <f t="shared" si="82"/>
+        <f t="shared" si="81"/>
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -7023,7 +7030,7 @@
       <c r="A745" s="1">
         <v>45305</v>
       </c>
-      <c r="B745">
+      <c r="B745" s="3">
         <v>5.0199999999999996</v>
       </c>
     </row>
@@ -7032,7 +7039,7 @@
         <v>45306</v>
       </c>
       <c r="B746" s="2">
-        <f t="shared" ref="B746:B751" si="83">B747</f>
+        <f t="shared" ref="B746:B751" si="82">B747</f>
         <v>6.99</v>
       </c>
     </row>
@@ -7041,7 +7048,7 @@
         <v>45307</v>
       </c>
       <c r="B747" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.99</v>
       </c>
     </row>
@@ -7050,7 +7057,7 @@
         <v>45308</v>
       </c>
       <c r="B748" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.99</v>
       </c>
     </row>
@@ -7059,7 +7066,7 @@
         <v>45309</v>
       </c>
       <c r="B749" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.99</v>
       </c>
     </row>
@@ -7068,7 +7075,7 @@
         <v>45310</v>
       </c>
       <c r="B750" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.99</v>
       </c>
     </row>
@@ -7077,7 +7084,7 @@
         <v>45311</v>
       </c>
       <c r="B751" s="2">
-        <f t="shared" si="83"/>
+        <f t="shared" si="82"/>
         <v>6.99</v>
       </c>
     </row>
@@ -7085,7 +7092,7 @@
       <c r="A752" s="1">
         <v>45312</v>
       </c>
-      <c r="B752">
+      <c r="B752" s="3">
         <v>6.99</v>
       </c>
     </row>
@@ -7094,7 +7101,7 @@
         <v>45313</v>
       </c>
       <c r="B753" s="2">
-        <f t="shared" ref="B753:B758" si="84">B754</f>
+        <f t="shared" ref="B753:B758" si="83">B754</f>
         <v>7.08</v>
       </c>
     </row>
@@ -7103,7 +7110,7 @@
         <v>45314</v>
       </c>
       <c r="B754" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>7.08</v>
       </c>
     </row>
@@ -7112,7 +7119,7 @@
         <v>45315</v>
       </c>
       <c r="B755" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>7.08</v>
       </c>
     </row>
@@ -7121,7 +7128,7 @@
         <v>45316</v>
       </c>
       <c r="B756" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>7.08</v>
       </c>
     </row>
@@ -7130,7 +7137,7 @@
         <v>45317</v>
       </c>
       <c r="B757" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>7.08</v>
       </c>
     </row>
@@ -7139,7 +7146,7 @@
         <v>45318</v>
       </c>
       <c r="B758" s="2">
-        <f t="shared" si="84"/>
+        <f t="shared" si="83"/>
         <v>7.08</v>
       </c>
     </row>
@@ -7147,7 +7154,7 @@
       <c r="A759" s="1">
         <v>45319</v>
       </c>
-      <c r="B759">
+      <c r="B759" s="3">
         <v>7.08</v>
       </c>
     </row>
@@ -7156,7 +7163,7 @@
         <v>45320</v>
       </c>
       <c r="B760" s="2">
-        <f t="shared" ref="B760:B761" si="85">B761</f>
+        <f t="shared" ref="B760:B761" si="84">B761</f>
         <v>7.46</v>
       </c>
     </row>
@@ -7165,7 +7172,7 @@
         <v>45321</v>
       </c>
       <c r="B761" s="2">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>7.46</v>
       </c>
     </row>
@@ -7173,7 +7180,7 @@
       <c r="A762" s="1">
         <v>45322</v>
       </c>
-      <c r="B762">
+      <c r="B762" s="3">
         <v>7.46</v>
       </c>
     </row>
@@ -7182,7 +7189,7 @@
         <v>45323</v>
       </c>
       <c r="B763" s="2">
-        <f t="shared" ref="B763:B779" si="86">B764</f>
+        <f t="shared" ref="B763:B779" si="85">B764</f>
         <v>6.79</v>
       </c>
     </row>
@@ -7191,7 +7198,7 @@
         <v>45324</v>
       </c>
       <c r="B764" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7200,7 +7207,7 @@
         <v>45325</v>
       </c>
       <c r="B765" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7209,7 +7216,7 @@
         <v>45326</v>
       </c>
       <c r="B766" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7218,7 +7225,7 @@
         <v>45327</v>
       </c>
       <c r="B767" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7227,7 +7234,7 @@
         <v>45328</v>
       </c>
       <c r="B768" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7236,7 +7243,7 @@
         <v>45329</v>
       </c>
       <c r="B769" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7245,7 +7252,7 @@
         <v>45330</v>
       </c>
       <c r="B770" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7254,7 +7261,7 @@
         <v>45331</v>
       </c>
       <c r="B771" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7263,7 +7270,7 @@
         <v>45332</v>
       </c>
       <c r="B772" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7272,7 +7279,7 @@
         <v>45333</v>
       </c>
       <c r="B773" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7281,7 +7288,7 @@
         <v>45334</v>
       </c>
       <c r="B774" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7290,7 +7297,7 @@
         <v>45335</v>
       </c>
       <c r="B775" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7299,7 +7306,7 @@
         <v>45336</v>
       </c>
       <c r="B776" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7308,7 +7315,7 @@
         <v>45337</v>
       </c>
       <c r="B777" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7317,7 +7324,7 @@
         <v>45338</v>
       </c>
       <c r="B778" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7326,7 +7333,7 @@
         <v>45339</v>
       </c>
       <c r="B779" s="2">
-        <f t="shared" si="86"/>
+        <f t="shared" si="85"/>
         <v>6.79</v>
       </c>
     </row>
@@ -7334,7 +7341,7 @@
       <c r="A780" s="1">
         <v>45340</v>
       </c>
-      <c r="B780">
+      <c r="B780" s="3">
         <v>6.79</v>
       </c>
     </row>
@@ -7343,7 +7350,7 @@
         <v>45341</v>
       </c>
       <c r="B781" s="2">
-        <f t="shared" ref="B781:B786" si="87">B782</f>
+        <f t="shared" ref="B781:B786" si="86">B782</f>
         <v>6.9</v>
       </c>
     </row>
@@ -7352,7 +7359,7 @@
         <v>45342</v>
       </c>
       <c r="B782" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.9</v>
       </c>
     </row>
@@ -7361,7 +7368,7 @@
         <v>45343</v>
       </c>
       <c r="B783" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.9</v>
       </c>
     </row>
@@ -7370,7 +7377,7 @@
         <v>45344</v>
       </c>
       <c r="B784" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.9</v>
       </c>
     </row>
@@ -7379,7 +7386,7 @@
         <v>45345</v>
       </c>
       <c r="B785" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.9</v>
       </c>
     </row>
@@ -7388,7 +7395,7 @@
         <v>45346</v>
       </c>
       <c r="B786" s="2">
-        <f t="shared" si="87"/>
+        <f t="shared" si="86"/>
         <v>6.9</v>
       </c>
     </row>
@@ -7396,7 +7403,7 @@
       <c r="A787" s="1">
         <v>45347</v>
       </c>
-      <c r="B787">
+      <c r="B787" s="3">
         <v>6.9</v>
       </c>
     </row>
@@ -7405,7 +7412,7 @@
         <v>45348</v>
       </c>
       <c r="B788" s="2">
-        <f t="shared" ref="B788:B790" si="88">B789</f>
+        <f t="shared" ref="B788:B790" si="87">B789</f>
         <v>6.27</v>
       </c>
     </row>
@@ -7414,7 +7421,7 @@
         <v>45349</v>
       </c>
       <c r="B789" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>6.27</v>
       </c>
     </row>
@@ -7423,7 +7430,7 @@
         <v>45350</v>
       </c>
       <c r="B790" s="2">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>6.27</v>
       </c>
     </row>
@@ -7431,7 +7438,7 @@
       <c r="A791" s="1">
         <v>45351</v>
       </c>
-      <c r="B791">
+      <c r="B791" s="3">
         <v>6.27</v>
       </c>
     </row>
@@ -7440,7 +7447,7 @@
         <v>45352</v>
       </c>
       <c r="B792" s="2">
-        <f t="shared" ref="B792:B828" si="89">B793</f>
+        <f t="shared" ref="B792:B828" si="88">B793</f>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7449,7 +7456,7 @@
         <v>45353</v>
       </c>
       <c r="B793" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7458,7 +7465,7 @@
         <v>45354</v>
       </c>
       <c r="B794" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7467,7 +7474,7 @@
         <v>45355</v>
       </c>
       <c r="B795" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7476,7 +7483,7 @@
         <v>45356</v>
       </c>
       <c r="B796" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7485,7 +7492,7 @@
         <v>45357</v>
       </c>
       <c r="B797" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7494,7 +7501,7 @@
         <v>45358</v>
       </c>
       <c r="B798" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7503,7 +7510,7 @@
         <v>45359</v>
       </c>
       <c r="B799" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7512,7 +7519,7 @@
         <v>45360</v>
       </c>
       <c r="B800" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7521,7 +7528,7 @@
         <v>45361</v>
       </c>
       <c r="B801" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7530,7 +7537,7 @@
         <v>45362</v>
       </c>
       <c r="B802" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7539,7 +7546,7 @@
         <v>45363</v>
       </c>
       <c r="B803" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7548,7 +7555,7 @@
         <v>45364</v>
       </c>
       <c r="B804" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7557,7 +7564,7 @@
         <v>45365</v>
       </c>
       <c r="B805" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7566,7 +7573,7 @@
         <v>45366</v>
       </c>
       <c r="B806" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7575,7 +7582,7 @@
         <v>45367</v>
       </c>
       <c r="B807" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7584,7 +7591,7 @@
         <v>45368</v>
       </c>
       <c r="B808" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7593,7 +7600,7 @@
         <v>45369</v>
       </c>
       <c r="B809" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7602,7 +7609,7 @@
         <v>45370</v>
       </c>
       <c r="B810" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7611,7 +7618,7 @@
         <v>45371</v>
       </c>
       <c r="B811" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7620,7 +7627,7 @@
         <v>45372</v>
       </c>
       <c r="B812" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7629,7 +7636,7 @@
         <v>45373</v>
       </c>
       <c r="B813" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7638,7 +7645,7 @@
         <v>45374</v>
       </c>
       <c r="B814" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7647,7 +7654,7 @@
         <v>45375</v>
       </c>
       <c r="B815" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7656,7 +7663,7 @@
         <v>45376</v>
       </c>
       <c r="B816" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7665,7 +7672,7 @@
         <v>45377</v>
       </c>
       <c r="B817" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7674,7 +7681,7 @@
         <v>45378</v>
       </c>
       <c r="B818" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7683,7 +7690,7 @@
         <v>45379</v>
       </c>
       <c r="B819" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7692,7 +7699,7 @@
         <v>45380</v>
       </c>
       <c r="B820" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7701,7 +7708,7 @@
         <v>45381</v>
       </c>
       <c r="B821" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7710,7 +7717,7 @@
         <v>45382</v>
       </c>
       <c r="B822" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7719,7 +7726,7 @@
         <v>45383</v>
       </c>
       <c r="B823" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7728,7 +7735,7 @@
         <v>45384</v>
       </c>
       <c r="B824" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7737,7 +7744,7 @@
         <v>45385</v>
       </c>
       <c r="B825" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7746,7 +7753,7 @@
         <v>45386</v>
       </c>
       <c r="B826" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7755,7 +7762,7 @@
         <v>45387</v>
       </c>
       <c r="B827" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7764,7 +7771,7 @@
         <v>45388</v>
       </c>
       <c r="B828" s="2">
-        <f t="shared" si="89"/>
+        <f t="shared" si="88"/>
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7772,7 +7779,7 @@
       <c r="A829" s="1">
         <v>45389</v>
       </c>
-      <c r="B829">
+      <c r="B829" s="3">
         <v>8.3114000000000008</v>
       </c>
     </row>
@@ -7781,7 +7788,7 @@
         <v>45390</v>
       </c>
       <c r="B830" s="2">
-        <f t="shared" ref="B830:B835" si="90">B831</f>
+        <f t="shared" ref="B830:B835" si="89">B831</f>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7790,7 +7797,7 @@
         <v>45391</v>
       </c>
       <c r="B831" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7799,7 +7806,7 @@
         <v>45392</v>
       </c>
       <c r="B832" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7808,7 +7815,7 @@
         <v>45393</v>
       </c>
       <c r="B833" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7817,7 +7824,7 @@
         <v>45394</v>
       </c>
       <c r="B834" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7826,7 +7833,7 @@
         <v>45395</v>
       </c>
       <c r="B835" s="2">
-        <f t="shared" si="90"/>
+        <f t="shared" si="89"/>
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7834,7 +7841,7 @@
       <c r="A836" s="1">
         <v>45396</v>
       </c>
-      <c r="B836">
+      <c r="B836" s="3">
         <v>5.982003158043141</v>
       </c>
     </row>
@@ -7843,7 +7850,7 @@
         <v>45397</v>
       </c>
       <c r="B837" s="2">
-        <f t="shared" ref="B837:B842" si="91">B838</f>
+        <f t="shared" ref="B837:B842" si="90">B838</f>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7852,7 +7859,7 @@
         <v>45398</v>
       </c>
       <c r="B838" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7861,7 +7868,7 @@
         <v>45399</v>
       </c>
       <c r="B839" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7870,7 +7877,7 @@
         <v>45400</v>
       </c>
       <c r="B840" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7879,7 +7886,7 @@
         <v>45401</v>
       </c>
       <c r="B841" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7888,7 +7895,7 @@
         <v>45402</v>
       </c>
       <c r="B842" s="2">
-        <f t="shared" si="91"/>
+        <f t="shared" si="90"/>
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7896,7 +7903,7 @@
       <c r="A843" s="1">
         <v>45403</v>
       </c>
-      <c r="B843">
+      <c r="B843" s="3">
         <v>6.9000934466163626</v>
       </c>
     </row>
@@ -7905,7 +7912,7 @@
         <v>45404</v>
       </c>
       <c r="B844" s="2">
-        <f t="shared" ref="B844:B849" si="92">B845</f>
+        <f t="shared" ref="B844:B849" si="91">B845</f>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7914,7 +7921,7 @@
         <v>45405</v>
       </c>
       <c r="B845" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7923,7 +7930,7 @@
         <v>45406</v>
       </c>
       <c r="B846" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7932,7 +7939,7 @@
         <v>45407</v>
       </c>
       <c r="B847" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7941,7 +7948,7 @@
         <v>45408</v>
       </c>
       <c r="B848" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7950,7 +7957,7 @@
         <v>45409</v>
       </c>
       <c r="B849" s="2">
-        <f t="shared" si="92"/>
+        <f t="shared" si="91"/>
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7958,7 +7965,7 @@
       <c r="A850" s="1">
         <v>45410</v>
       </c>
-      <c r="B850">
+      <c r="B850" s="3">
         <v>5.8805300462249619</v>
       </c>
     </row>
@@ -7967,7 +7974,7 @@
         <v>45411</v>
       </c>
       <c r="B851" s="2">
-        <f t="shared" ref="B851:B863" si="93">B852</f>
+        <f t="shared" ref="B851:B863" si="92">B852</f>
         <v>5.97</v>
       </c>
     </row>
@@ -7976,7 +7983,7 @@
         <v>45412</v>
       </c>
       <c r="B852" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -7985,7 +7992,7 @@
         <v>45413</v>
       </c>
       <c r="B853" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -7994,7 +8001,7 @@
         <v>45414</v>
       </c>
       <c r="B854" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8003,7 +8010,7 @@
         <v>45415</v>
       </c>
       <c r="B855" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8012,7 +8019,7 @@
         <v>45416</v>
       </c>
       <c r="B856" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8021,7 +8028,7 @@
         <v>45417</v>
       </c>
       <c r="B857" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8030,7 +8037,7 @@
         <v>45418</v>
       </c>
       <c r="B858" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8039,7 +8046,7 @@
         <v>45419</v>
       </c>
       <c r="B859" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8048,7 +8055,7 @@
         <v>45420</v>
       </c>
       <c r="B860" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8057,7 +8064,7 @@
         <v>45421</v>
       </c>
       <c r="B861" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8066,7 +8073,7 @@
         <v>45422</v>
       </c>
       <c r="B862" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8075,7 +8082,7 @@
         <v>45423</v>
       </c>
       <c r="B863" s="2">
-        <f t="shared" si="93"/>
+        <f t="shared" si="92"/>
         <v>5.97</v>
       </c>
     </row>
@@ -8083,7 +8090,7 @@
       <c r="A864" s="1">
         <v>45424</v>
       </c>
-      <c r="B864">
+      <c r="B864" s="3">
         <v>5.97</v>
       </c>
     </row>
@@ -8092,7 +8099,7 @@
         <v>45425</v>
       </c>
       <c r="B865" s="2">
-        <f t="shared" ref="B865:B870" si="94">B866</f>
+        <f t="shared" ref="B865:B870" si="93">B866</f>
         <v>7.68</v>
       </c>
     </row>
@@ -8101,7 +8108,7 @@
         <v>45426</v>
       </c>
       <c r="B866" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>7.68</v>
       </c>
     </row>
@@ -8110,7 +8117,7 @@
         <v>45427</v>
       </c>
       <c r="B867" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>7.68</v>
       </c>
     </row>
@@ -8119,7 +8126,7 @@
         <v>45428</v>
       </c>
       <c r="B868" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>7.68</v>
       </c>
     </row>
@@ -8128,7 +8135,7 @@
         <v>45429</v>
       </c>
       <c r="B869" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>7.68</v>
       </c>
     </row>
@@ -8137,7 +8144,7 @@
         <v>45430</v>
       </c>
       <c r="B870" s="2">
-        <f t="shared" si="94"/>
+        <f t="shared" si="93"/>
         <v>7.68</v>
       </c>
     </row>
@@ -8145,7 +8152,7 @@
       <c r="A871" s="1">
         <v>45431</v>
       </c>
-      <c r="B871">
+      <c r="B871" s="3">
         <v>7.68</v>
       </c>
     </row>
@@ -8154,7 +8161,7 @@
         <v>45432</v>
       </c>
       <c r="B872" s="2">
-        <f t="shared" ref="B872:B877" si="95">B873</f>
+        <f t="shared" ref="B872:B877" si="94">B873</f>
         <v>4.99</v>
       </c>
     </row>
@@ -8163,7 +8170,7 @@
         <v>45433</v>
       </c>
       <c r="B873" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>4.99</v>
       </c>
     </row>
@@ -8172,7 +8179,7 @@
         <v>45434</v>
       </c>
       <c r="B874" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>4.99</v>
       </c>
     </row>
@@ -8181,7 +8188,7 @@
         <v>45435</v>
       </c>
       <c r="B875" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>4.99</v>
       </c>
     </row>
@@ -8190,7 +8197,7 @@
         <v>45436</v>
       </c>
       <c r="B876" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>4.99</v>
       </c>
     </row>
@@ -8199,7 +8206,7 @@
         <v>45437</v>
       </c>
       <c r="B877" s="2">
-        <f t="shared" si="95"/>
+        <f t="shared" si="94"/>
         <v>4.99</v>
       </c>
     </row>
@@ -8207,7 +8214,7 @@
       <c r="A878" s="1">
         <v>45438</v>
       </c>
-      <c r="B878">
+      <c r="B878" s="3">
         <v>4.99</v>
       </c>
     </row>
@@ -8216,7 +8223,7 @@
         <v>45439</v>
       </c>
       <c r="B879" s="2">
-        <f t="shared" ref="B879:B882" si="96">B880</f>
+        <f t="shared" ref="B879:B882" si="95">B880</f>
         <v>7.87</v>
       </c>
     </row>
@@ -8225,7 +8232,7 @@
         <v>45440</v>
       </c>
       <c r="B880" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>7.87</v>
       </c>
     </row>
@@ -8234,7 +8241,7 @@
         <v>45441</v>
       </c>
       <c r="B881" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>7.87</v>
       </c>
     </row>
@@ -8243,7 +8250,7 @@
         <v>45442</v>
       </c>
       <c r="B882" s="2">
-        <f t="shared" si="96"/>
+        <f t="shared" si="95"/>
         <v>7.87</v>
       </c>
     </row>
@@ -8251,7 +8258,7 @@
       <c r="A883" s="1">
         <v>45443</v>
       </c>
-      <c r="B883">
+      <c r="B883" s="3">
         <v>7.87</v>
       </c>
     </row>
@@ -8260,7 +8267,7 @@
         <v>45444</v>
       </c>
       <c r="B884" s="2">
-        <f t="shared" ref="B884:B898" si="97">B885</f>
+        <f t="shared" ref="B884:B898" si="96">B885</f>
         <v>7.73</v>
       </c>
     </row>
@@ -8269,7 +8276,7 @@
         <v>45445</v>
       </c>
       <c r="B885" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8278,7 +8285,7 @@
         <v>45446</v>
       </c>
       <c r="B886" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8287,7 +8294,7 @@
         <v>45447</v>
       </c>
       <c r="B887" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8296,7 +8303,7 @@
         <v>45448</v>
       </c>
       <c r="B888" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8305,7 +8312,7 @@
         <v>45449</v>
       </c>
       <c r="B889" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8314,7 +8321,7 @@
         <v>45450</v>
       </c>
       <c r="B890" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8323,7 +8330,7 @@
         <v>45451</v>
       </c>
       <c r="B891" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8332,7 +8339,7 @@
         <v>45452</v>
       </c>
       <c r="B892" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8341,7 +8348,7 @@
         <v>45453</v>
       </c>
       <c r="B893" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8350,7 +8357,7 @@
         <v>45454</v>
       </c>
       <c r="B894" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8359,7 +8366,7 @@
         <v>45455</v>
       </c>
       <c r="B895" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8368,7 +8375,7 @@
         <v>45456</v>
       </c>
       <c r="B896" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8377,7 +8384,7 @@
         <v>45457</v>
       </c>
       <c r="B897" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8386,7 +8393,7 @@
         <v>45458</v>
       </c>
       <c r="B898" s="2">
-        <f t="shared" si="97"/>
+        <f t="shared" si="96"/>
         <v>7.73</v>
       </c>
     </row>
@@ -8394,7 +8401,7 @@
       <c r="A899" s="1">
         <v>45459</v>
       </c>
-      <c r="B899">
+      <c r="B899" s="3">
         <v>7.73</v>
       </c>
     </row>
@@ -8403,7 +8410,7 @@
         <v>45460</v>
       </c>
       <c r="B900" s="2">
-        <f t="shared" ref="B900:B905" si="98">B901</f>
+        <f t="shared" ref="B900:B905" si="97">B901</f>
         <v>6.06</v>
       </c>
     </row>
@@ -8412,7 +8419,7 @@
         <v>45461</v>
       </c>
       <c r="B901" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6.06</v>
       </c>
     </row>
@@ -8421,7 +8428,7 @@
         <v>45462</v>
       </c>
       <c r="B902" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6.06</v>
       </c>
     </row>
@@ -8430,7 +8437,7 @@
         <v>45463</v>
       </c>
       <c r="B903" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6.06</v>
       </c>
     </row>
@@ -8439,7 +8446,7 @@
         <v>45464</v>
       </c>
       <c r="B904" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6.06</v>
       </c>
     </row>
@@ -8448,7 +8455,7 @@
         <v>45465</v>
       </c>
       <c r="B905" s="2">
-        <f t="shared" si="98"/>
+        <f t="shared" si="97"/>
         <v>6.06</v>
       </c>
     </row>
@@ -8456,7 +8463,7 @@
       <c r="A906" s="1">
         <v>45466</v>
       </c>
-      <c r="B906">
+      <c r="B906" s="3">
         <v>6.06</v>
       </c>
     </row>
@@ -8465,7 +8472,7 @@
         <v>45467</v>
       </c>
       <c r="B907" s="2">
-        <f t="shared" ref="B907:B912" si="99">B908</f>
+        <f t="shared" ref="B907:B912" si="98">B908</f>
         <v>6.91</v>
       </c>
     </row>
@@ -8474,7 +8481,7 @@
         <v>45468</v>
       </c>
       <c r="B908" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6.91</v>
       </c>
     </row>
@@ -8483,7 +8490,7 @@
         <v>45469</v>
       </c>
       <c r="B909" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6.91</v>
       </c>
     </row>
@@ -8492,7 +8499,7 @@
         <v>45470</v>
       </c>
       <c r="B910" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6.91</v>
       </c>
     </row>
@@ -8501,7 +8508,7 @@
         <v>45471</v>
       </c>
       <c r="B911" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6.91</v>
       </c>
     </row>
@@ -8510,7 +8517,7 @@
         <v>45472</v>
       </c>
       <c r="B912" s="2">
-        <f t="shared" si="99"/>
+        <f t="shared" si="98"/>
         <v>6.91</v>
       </c>
     </row>
@@ -8518,7 +8525,7 @@
       <c r="A913" s="1">
         <v>45473</v>
       </c>
-      <c r="B913">
+      <c r="B913" s="3">
         <v>6.91</v>
       </c>
     </row>
@@ -8527,7 +8534,7 @@
         <v>45474</v>
       </c>
       <c r="B914" s="2">
-        <f t="shared" ref="B914:B926" si="100">B915</f>
+        <f t="shared" ref="B914:B926" si="99">B915</f>
         <v>8.32</v>
       </c>
     </row>
@@ -8536,7 +8543,7 @@
         <v>45475</v>
       </c>
       <c r="B915" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8545,7 +8552,7 @@
         <v>45476</v>
       </c>
       <c r="B916" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8554,7 +8561,7 @@
         <v>45477</v>
       </c>
       <c r="B917" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8563,7 +8570,7 @@
         <v>45478</v>
       </c>
       <c r="B918" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8572,7 +8579,7 @@
         <v>45479</v>
       </c>
       <c r="B919" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8581,7 +8588,7 @@
         <v>45480</v>
       </c>
       <c r="B920" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8590,7 +8597,7 @@
         <v>45481</v>
       </c>
       <c r="B921" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8599,7 +8606,7 @@
         <v>45482</v>
       </c>
       <c r="B922" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8608,7 +8615,7 @@
         <v>45483</v>
       </c>
       <c r="B923" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8617,7 +8624,7 @@
         <v>45484</v>
       </c>
       <c r="B924" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8626,7 +8633,7 @@
         <v>45485</v>
       </c>
       <c r="B925" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8635,7 +8642,7 @@
         <v>45486</v>
       </c>
       <c r="B926" s="2">
-        <f t="shared" si="100"/>
+        <f t="shared" si="99"/>
         <v>8.32</v>
       </c>
     </row>
@@ -8643,7 +8650,7 @@
       <c r="A927" s="1">
         <v>45487</v>
       </c>
-      <c r="B927">
+      <c r="B927" s="3">
         <v>8.32</v>
       </c>
     </row>
@@ -8652,7 +8659,7 @@
         <v>45488</v>
       </c>
       <c r="B928" s="2">
-        <f t="shared" ref="B928:B933" si="101">B929</f>
+        <f t="shared" ref="B928:B933" si="100">B929</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8661,7 +8668,7 @@
         <v>45489</v>
       </c>
       <c r="B929" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8670,7 +8677,7 @@
         <v>45490</v>
       </c>
       <c r="B930" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8679,7 +8686,7 @@
         <v>45491</v>
       </c>
       <c r="B931" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8688,7 +8695,7 @@
         <v>45492</v>
       </c>
       <c r="B932" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8697,7 +8704,7 @@
         <v>45493</v>
       </c>
       <c r="B933" s="2">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8705,7 +8712,7 @@
       <c r="A934" s="1">
         <v>45494</v>
       </c>
-      <c r="B934">
+      <c r="B934" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -8714,7 +8721,7 @@
         <v>45495</v>
       </c>
       <c r="B935" s="2">
-        <f t="shared" ref="B935:B940" si="102">B936</f>
+        <f t="shared" ref="B935:B940" si="101">B936</f>
         <v>8.31</v>
       </c>
     </row>
@@ -8723,7 +8730,7 @@
         <v>45496</v>
       </c>
       <c r="B936" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.31</v>
       </c>
     </row>
@@ -8732,7 +8739,7 @@
         <v>45497</v>
       </c>
       <c r="B937" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.31</v>
       </c>
     </row>
@@ -8741,7 +8748,7 @@
         <v>45498</v>
       </c>
       <c r="B938" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.31</v>
       </c>
     </row>
@@ -8750,7 +8757,7 @@
         <v>45499</v>
       </c>
       <c r="B939" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.31</v>
       </c>
     </row>
@@ -8759,7 +8766,7 @@
         <v>45500</v>
       </c>
       <c r="B940" s="2">
-        <f t="shared" si="102"/>
+        <f t="shared" si="101"/>
         <v>8.31</v>
       </c>
     </row>
@@ -8767,7 +8774,7 @@
       <c r="A941" s="1">
         <v>45501</v>
       </c>
-      <c r="B941">
+      <c r="B941" s="3">
         <v>8.31</v>
       </c>
     </row>
@@ -8776,7 +8783,7 @@
         <v>45502</v>
       </c>
       <c r="B942" s="2">
-        <f t="shared" ref="B942:B943" si="103">B943</f>
+        <f t="shared" ref="B942:B943" si="102">B943</f>
         <v>7.04</v>
       </c>
     </row>
@@ -8785,7 +8792,7 @@
         <v>45503</v>
       </c>
       <c r="B943" s="2">
-        <f t="shared" si="103"/>
+        <f t="shared" si="102"/>
         <v>7.04</v>
       </c>
     </row>
@@ -8793,7 +8800,7 @@
       <c r="A944" s="1">
         <v>45504</v>
       </c>
-      <c r="B944">
+      <c r="B944" s="3">
         <v>7.04</v>
       </c>
     </row>
@@ -8802,7 +8809,7 @@
         <v>45505</v>
       </c>
       <c r="B945" s="2">
-        <f t="shared" ref="B945:B947" si="104">B946</f>
+        <f t="shared" ref="B945:B947" si="103">B946</f>
         <v>4.17</v>
       </c>
     </row>
@@ -8811,7 +8818,7 @@
         <v>45506</v>
       </c>
       <c r="B946" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.17</v>
       </c>
     </row>
@@ -8820,7 +8827,7 @@
         <v>45507</v>
       </c>
       <c r="B947" s="2">
-        <f t="shared" si="104"/>
+        <f t="shared" si="103"/>
         <v>4.17</v>
       </c>
     </row>
@@ -8828,7 +8835,7 @@
       <c r="A948" s="1">
         <v>45508</v>
       </c>
-      <c r="B948">
+      <c r="B948" s="3">
         <v>4.17</v>
       </c>
     </row>
@@ -8837,7 +8844,7 @@
         <v>45509</v>
       </c>
       <c r="B949" s="2">
-        <f t="shared" ref="B949:B954" si="105">B950</f>
+        <f t="shared" ref="B949:B954" si="104">B950</f>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8846,7 +8853,7 @@
         <v>45510</v>
       </c>
       <c r="B950" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8855,7 +8862,7 @@
         <v>45511</v>
       </c>
       <c r="B951" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8864,7 +8871,7 @@
         <v>45512</v>
       </c>
       <c r="B952" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8873,7 +8880,7 @@
         <v>45513</v>
       </c>
       <c r="B953" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8882,7 +8889,7 @@
         <v>45514</v>
       </c>
       <c r="B954" s="2">
-        <f t="shared" si="105"/>
+        <f t="shared" si="104"/>
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8890,7 +8897,7 @@
       <c r="A955" s="1">
         <v>45515</v>
       </c>
-      <c r="B955">
+      <c r="B955" s="3">
         <v>4.8499999999999996</v>
       </c>
     </row>
@@ -8899,7 +8906,7 @@
         <v>45516</v>
       </c>
       <c r="B956" s="2">
-        <f t="shared" ref="B956:B961" si="106">B957</f>
+        <f t="shared" ref="B956:B961" si="105">B957</f>
         <v>4.45</v>
       </c>
     </row>
@@ -8908,7 +8915,7 @@
         <v>45517</v>
       </c>
       <c r="B957" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>4.45</v>
       </c>
     </row>
@@ -8917,7 +8924,7 @@
         <v>45518</v>
       </c>
       <c r="B958" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>4.45</v>
       </c>
     </row>
@@ -8926,7 +8933,7 @@
         <v>45519</v>
       </c>
       <c r="B959" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>4.45</v>
       </c>
     </row>
@@ -8935,7 +8942,7 @@
         <v>45520</v>
       </c>
       <c r="B960" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>4.45</v>
       </c>
     </row>
@@ -8944,7 +8951,7 @@
         <v>45521</v>
       </c>
       <c r="B961" s="2">
-        <f t="shared" si="106"/>
+        <f t="shared" si="105"/>
         <v>4.45</v>
       </c>
     </row>
@@ -8952,7 +8959,7 @@
       <c r="A962" s="1">
         <v>45522</v>
       </c>
-      <c r="B962">
+      <c r="B962" s="3">
         <v>4.45</v>
       </c>
     </row>
@@ -8961,7 +8968,7 @@
         <v>45523</v>
       </c>
       <c r="B963" s="2">
-        <f t="shared" ref="B963:B968" si="107">B964</f>
+        <f t="shared" ref="B963:B968" si="106">B964</f>
         <v>5.27</v>
       </c>
     </row>
@@ -8970,7 +8977,7 @@
         <v>45524</v>
       </c>
       <c r="B964" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.27</v>
       </c>
     </row>
@@ -8979,7 +8986,7 @@
         <v>45525</v>
       </c>
       <c r="B965" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.27</v>
       </c>
     </row>
@@ -8988,7 +8995,7 @@
         <v>45526</v>
       </c>
       <c r="B966" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.27</v>
       </c>
     </row>
@@ -8997,7 +9004,7 @@
         <v>45527</v>
       </c>
       <c r="B967" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.27</v>
       </c>
     </row>
@@ -9006,7 +9013,7 @@
         <v>45528</v>
       </c>
       <c r="B968" s="2">
-        <f t="shared" si="107"/>
+        <f t="shared" si="106"/>
         <v>5.27</v>
       </c>
     </row>
@@ -9014,7 +9021,7 @@
       <c r="A969" s="1">
         <v>45529</v>
       </c>
-      <c r="B969">
+      <c r="B969" s="3">
         <v>5.27</v>
       </c>
     </row>
@@ -9023,7 +9030,7 @@
         <v>45530</v>
       </c>
       <c r="B970" s="2">
-        <f t="shared" ref="B970:B974" si="108">B971</f>
+        <f t="shared" ref="B970:B974" si="107">B971</f>
         <v>4.74</v>
       </c>
     </row>
@@ -9032,7 +9039,7 @@
         <v>45531</v>
       </c>
       <c r="B971" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>4.74</v>
       </c>
     </row>
@@ -9041,7 +9048,7 @@
         <v>45532</v>
       </c>
       <c r="B972" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>4.74</v>
       </c>
     </row>
@@ -9050,7 +9057,7 @@
         <v>45533</v>
       </c>
       <c r="B973" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>4.74</v>
       </c>
     </row>
@@ -9059,7 +9066,7 @@
         <v>45534</v>
       </c>
       <c r="B974" s="2">
-        <f t="shared" si="108"/>
+        <f t="shared" si="107"/>
         <v>4.74</v>
       </c>
     </row>
@@ -9067,7 +9074,7 @@
       <c r="A975" s="1">
         <v>45535</v>
       </c>
-      <c r="B975">
+      <c r="B975" s="3">
         <v>4.74</v>
       </c>
     </row>
@@ -9076,7 +9083,7 @@
         <v>45536</v>
       </c>
       <c r="B976" s="2">
-        <f t="shared" ref="B976:B982" si="109">B977</f>
+        <f t="shared" ref="B976:B982" si="108">B977</f>
         <v>6.04</v>
       </c>
     </row>
@@ -9085,7 +9092,7 @@
         <v>45537</v>
       </c>
       <c r="B977" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9094,7 +9101,7 @@
         <v>45538</v>
       </c>
       <c r="B978" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9103,7 +9110,7 @@
         <v>45539</v>
       </c>
       <c r="B979" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9112,7 +9119,7 @@
         <v>45540</v>
       </c>
       <c r="B980" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9121,7 +9128,7 @@
         <v>45541</v>
       </c>
       <c r="B981" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9130,7 +9137,7 @@
         <v>45542</v>
       </c>
       <c r="B982" s="2">
-        <f t="shared" si="109"/>
+        <f t="shared" si="108"/>
         <v>6.04</v>
       </c>
     </row>
@@ -9138,7 +9145,7 @@
       <c r="A983" s="1">
         <v>45543</v>
       </c>
-      <c r="B983">
+      <c r="B983" s="3">
         <v>6.04</v>
       </c>
     </row>
@@ -9147,7 +9154,7 @@
         <v>45544</v>
       </c>
       <c r="B984" s="2">
-        <f t="shared" ref="B984:B996" si="110">B985</f>
+        <f t="shared" ref="B984:B996" si="109">B985</f>
         <v>8.31</v>
       </c>
     </row>
@@ -9156,7 +9163,7 @@
         <v>45545</v>
       </c>
       <c r="B985" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9165,7 +9172,7 @@
         <v>45546</v>
       </c>
       <c r="B986" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9174,7 +9181,7 @@
         <v>45547</v>
       </c>
       <c r="B987" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9183,7 +9190,7 @@
         <v>45548</v>
       </c>
       <c r="B988" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9192,7 +9199,7 @@
         <v>45549</v>
       </c>
       <c r="B989" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9201,7 +9208,7 @@
         <v>45550</v>
       </c>
       <c r="B990" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9210,7 +9217,7 @@
         <v>45551</v>
       </c>
       <c r="B991" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9219,7 +9226,7 @@
         <v>45552</v>
       </c>
       <c r="B992" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9228,7 +9235,7 @@
         <v>45553</v>
       </c>
       <c r="B993" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9237,7 +9244,7 @@
         <v>45554</v>
       </c>
       <c r="B994" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9246,7 +9253,7 @@
         <v>45555</v>
       </c>
       <c r="B995" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9255,7 +9262,7 @@
         <v>45556</v>
       </c>
       <c r="B996" s="2">
-        <f t="shared" si="110"/>
+        <f t="shared" si="109"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9263,7 +9270,7 @@
       <c r="A997" s="1">
         <v>45557</v>
       </c>
-      <c r="B997">
+      <c r="B997" s="3">
         <v>8.31</v>
       </c>
     </row>
@@ -9272,7 +9279,7 @@
         <v>45558</v>
       </c>
       <c r="B998" s="2">
-        <f t="shared" ref="B998:B1003" si="111">B999</f>
+        <f t="shared" ref="B998:B1003" si="110">B999</f>
         <v>5.7</v>
       </c>
     </row>
@@ -9281,7 +9288,7 @@
         <v>45559</v>
       </c>
       <c r="B999" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9290,7 +9297,7 @@
         <v>45560</v>
       </c>
       <c r="B1000" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9299,7 +9306,7 @@
         <v>45561</v>
       </c>
       <c r="B1001" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9308,7 +9315,7 @@
         <v>45562</v>
       </c>
       <c r="B1002" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9317,7 +9324,7 @@
         <v>45563</v>
       </c>
       <c r="B1003" s="2">
-        <f t="shared" si="111"/>
+        <f t="shared" si="110"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9325,7 +9332,7 @@
       <c r="A1004" s="1">
         <v>45564</v>
       </c>
-      <c r="B1004">
+      <c r="B1004" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -9334,7 +9341,7 @@
         <v>45565</v>
       </c>
       <c r="B1005" s="2">
-        <f t="shared" ref="B1005:B1010" si="112">B1006</f>
+        <f t="shared" ref="B1005:B1010" si="111">B1006</f>
         <v>7.54</v>
       </c>
     </row>
@@ -9343,7 +9350,7 @@
         <v>45566</v>
       </c>
       <c r="B1006" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>7.54</v>
       </c>
     </row>
@@ -9352,7 +9359,7 @@
         <v>45567</v>
       </c>
       <c r="B1007" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>7.54</v>
       </c>
     </row>
@@ -9361,7 +9368,7 @@
         <v>45568</v>
       </c>
       <c r="B1008" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>7.54</v>
       </c>
     </row>
@@ -9370,7 +9377,7 @@
         <v>45569</v>
       </c>
       <c r="B1009" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>7.54</v>
       </c>
     </row>
@@ -9379,7 +9386,7 @@
         <v>45570</v>
       </c>
       <c r="B1010" s="2">
-        <f t="shared" si="112"/>
+        <f t="shared" si="111"/>
         <v>7.54</v>
       </c>
     </row>
@@ -9387,7 +9394,7 @@
       <c r="A1011" s="1">
         <v>45571</v>
       </c>
-      <c r="B1011">
+      <c r="B1011" s="3">
         <v>7.54</v>
       </c>
     </row>
@@ -9396,7 +9403,7 @@
         <v>45572</v>
       </c>
       <c r="B1012" s="2">
-        <f t="shared" ref="B1012:B1017" si="113">B1013</f>
+        <f t="shared" ref="B1012:B1017" si="112">B1013</f>
         <v>8.17</v>
       </c>
     </row>
@@ -9405,7 +9412,7 @@
         <v>45573</v>
       </c>
       <c r="B1013" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9414,7 +9421,7 @@
         <v>45574</v>
       </c>
       <c r="B1014" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9423,7 +9430,7 @@
         <v>45575</v>
       </c>
       <c r="B1015" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9432,7 +9439,7 @@
         <v>45576</v>
       </c>
       <c r="B1016" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9441,7 +9448,7 @@
         <v>45577</v>
       </c>
       <c r="B1017" s="2">
-        <f t="shared" si="113"/>
+        <f t="shared" si="112"/>
         <v>8.17</v>
       </c>
     </row>
@@ -9449,7 +9456,7 @@
       <c r="A1018" s="1">
         <v>45578</v>
       </c>
-      <c r="B1018">
+      <c r="B1018" s="3">
         <v>8.17</v>
       </c>
     </row>
@@ -9458,7 +9465,7 @@
         <v>45579</v>
       </c>
       <c r="B1019" s="2">
-        <f t="shared" ref="B1019:B1024" si="114">B1020</f>
+        <f t="shared" ref="B1019:B1024" si="113">B1020</f>
         <v>8.32</v>
       </c>
     </row>
@@ -9467,7 +9474,7 @@
         <v>45580</v>
       </c>
       <c r="B1020" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>8.32</v>
       </c>
     </row>
@@ -9476,7 +9483,7 @@
         <v>45581</v>
       </c>
       <c r="B1021" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>8.32</v>
       </c>
     </row>
@@ -9485,7 +9492,7 @@
         <v>45582</v>
       </c>
       <c r="B1022" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>8.32</v>
       </c>
     </row>
@@ -9494,7 +9501,7 @@
         <v>45583</v>
       </c>
       <c r="B1023" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>8.32</v>
       </c>
     </row>
@@ -9503,7 +9510,7 @@
         <v>45584</v>
       </c>
       <c r="B1024" s="2">
-        <f t="shared" si="114"/>
+        <f t="shared" si="113"/>
         <v>8.32</v>
       </c>
     </row>
@@ -9511,7 +9518,7 @@
       <c r="A1025" s="1">
         <v>45585</v>
       </c>
-      <c r="B1025">
+      <c r="B1025" s="3">
         <v>8.32</v>
       </c>
     </row>
@@ -9520,7 +9527,7 @@
         <v>45586</v>
       </c>
       <c r="B1026" s="2">
-        <f t="shared" ref="B1026:B1031" si="115">B1027</f>
+        <f t="shared" ref="B1026:B1031" si="114">B1027</f>
         <v>6.31</v>
       </c>
     </row>
@@ -9529,7 +9536,7 @@
         <v>45587</v>
       </c>
       <c r="B1027" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>6.31</v>
       </c>
     </row>
@@ -9538,7 +9545,7 @@
         <v>45588</v>
       </c>
       <c r="B1028" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>6.31</v>
       </c>
     </row>
@@ -9547,7 +9554,7 @@
         <v>45589</v>
       </c>
       <c r="B1029" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>6.31</v>
       </c>
     </row>
@@ -9556,7 +9563,7 @@
         <v>45590</v>
       </c>
       <c r="B1030" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>6.31</v>
       </c>
     </row>
@@ -9565,7 +9572,7 @@
         <v>45591</v>
       </c>
       <c r="B1031" s="2">
-        <f t="shared" si="115"/>
+        <f t="shared" si="114"/>
         <v>6.31</v>
       </c>
     </row>
@@ -9573,7 +9580,7 @@
       <c r="A1032" s="1">
         <v>45592</v>
       </c>
-      <c r="B1032">
+      <c r="B1032" s="3">
         <v>6.31</v>
       </c>
     </row>
@@ -9582,7 +9589,7 @@
         <v>45593</v>
       </c>
       <c r="B1033" s="2">
-        <f t="shared" ref="B1033:B1035" si="116">B1034</f>
+        <f t="shared" ref="B1033:B1035" si="115">B1034</f>
         <v>8.33</v>
       </c>
     </row>
@@ -9591,7 +9598,7 @@
         <v>45594</v>
       </c>
       <c r="B1034" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9600,7 +9607,7 @@
         <v>45595</v>
       </c>
       <c r="B1035" s="2">
-        <f t="shared" si="116"/>
+        <f t="shared" si="115"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9608,7 +9615,7 @@
       <c r="A1036" s="1">
         <v>45596</v>
       </c>
-      <c r="B1036">
+      <c r="B1036" s="3">
         <v>8.33</v>
       </c>
     </row>
@@ -9617,7 +9624,7 @@
         <v>45597</v>
       </c>
       <c r="B1037" s="2">
-        <f t="shared" ref="B1037:B1045" si="117">B1038</f>
+        <f t="shared" ref="B1037:B1045" si="116">B1038</f>
         <v>8.33</v>
       </c>
     </row>
@@ -9626,7 +9633,7 @@
         <v>45598</v>
       </c>
       <c r="B1038" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9635,7 +9642,7 @@
         <v>45599</v>
       </c>
       <c r="B1039" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9644,7 +9651,7 @@
         <v>45600</v>
       </c>
       <c r="B1040" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9653,7 +9660,7 @@
         <v>45601</v>
       </c>
       <c r="B1041" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9662,7 +9669,7 @@
         <v>45602</v>
       </c>
       <c r="B1042" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9671,7 +9678,7 @@
         <v>45603</v>
       </c>
       <c r="B1043" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9680,7 +9687,7 @@
         <v>45604</v>
       </c>
       <c r="B1044" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9689,7 +9696,7 @@
         <v>45605</v>
       </c>
       <c r="B1045" s="2">
-        <f t="shared" si="117"/>
+        <f t="shared" si="116"/>
         <v>8.33</v>
       </c>
     </row>
@@ -9697,7 +9704,7 @@
       <c r="A1046" s="1">
         <v>45606</v>
       </c>
-      <c r="B1046">
+      <c r="B1046" s="3">
         <v>8.33</v>
       </c>
     </row>
@@ -9706,7 +9713,7 @@
         <v>45607</v>
       </c>
       <c r="B1047" s="2">
-        <f t="shared" ref="B1047:B1052" si="118">B1048</f>
+        <f t="shared" ref="B1047:B1052" si="117">B1048</f>
         <v>8.31</v>
       </c>
     </row>
@@ -9715,7 +9722,7 @@
         <v>45608</v>
       </c>
       <c r="B1048" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9724,7 +9731,7 @@
         <v>45609</v>
       </c>
       <c r="B1049" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9733,7 +9740,7 @@
         <v>45610</v>
       </c>
       <c r="B1050" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9742,7 +9749,7 @@
         <v>45611</v>
       </c>
       <c r="B1051" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9751,7 +9758,7 @@
         <v>45612</v>
       </c>
       <c r="B1052" s="2">
-        <f t="shared" si="118"/>
+        <f t="shared" si="117"/>
         <v>8.31</v>
       </c>
     </row>
@@ -9759,7 +9766,7 @@
       <c r="A1053" s="1">
         <v>45613</v>
       </c>
-      <c r="B1053">
+      <c r="B1053" s="3">
         <v>8.31</v>
       </c>
     </row>
@@ -9768,7 +9775,7 @@
         <v>45614</v>
       </c>
       <c r="B1054" s="2">
-        <f t="shared" ref="B1054:B1059" si="119">B1055</f>
+        <f t="shared" ref="B1054:B1059" si="118">B1055</f>
         <v>5.7</v>
       </c>
     </row>
@@ -9777,7 +9784,7 @@
         <v>45615</v>
       </c>
       <c r="B1055" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9786,7 +9793,7 @@
         <v>45616</v>
       </c>
       <c r="B1056" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9795,7 +9802,7 @@
         <v>45617</v>
       </c>
       <c r="B1057" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9804,7 +9811,7 @@
         <v>45618</v>
       </c>
       <c r="B1058" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9813,7 +9820,7 @@
         <v>45619</v>
       </c>
       <c r="B1059" s="2">
-        <f t="shared" si="119"/>
+        <f t="shared" si="118"/>
         <v>5.7</v>
       </c>
     </row>
@@ -9821,7 +9828,7 @@
       <c r="A1060" s="1">
         <v>45620</v>
       </c>
-      <c r="B1060">
+      <c r="B1060" s="3">
         <v>5.7</v>
       </c>
     </row>
@@ -9830,7 +9837,7 @@
         <v>45621</v>
       </c>
       <c r="B1061" s="2">
-        <f t="shared" ref="B1061:B1073" si="120">B1062</f>
+        <f t="shared" ref="B1061:B1073" si="119">B1062</f>
         <v>5.72</v>
       </c>
     </row>
@@ -9839,7 +9846,7 @@
         <v>45622</v>
       </c>
       <c r="B1062" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9848,7 +9855,7 @@
         <v>45623</v>
       </c>
       <c r="B1063" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9857,7 +9864,7 @@
         <v>45624</v>
       </c>
       <c r="B1064" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9866,7 +9873,7 @@
         <v>45625</v>
       </c>
       <c r="B1065" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9875,7 +9882,7 @@
         <v>45626</v>
       </c>
       <c r="B1066" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9884,7 +9891,7 @@
         <v>45627</v>
       </c>
       <c r="B1067" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9893,7 +9900,7 @@
         <v>45628</v>
       </c>
       <c r="B1068" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9902,7 +9909,7 @@
         <v>45629</v>
       </c>
       <c r="B1069" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9911,7 +9918,7 @@
         <v>45630</v>
       </c>
       <c r="B1070" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9920,7 +9927,7 @@
         <v>45631</v>
       </c>
       <c r="B1071" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9929,7 +9936,7 @@
         <v>45632</v>
       </c>
       <c r="B1072" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9938,7 +9945,7 @@
         <v>45633</v>
       </c>
       <c r="B1073" s="2">
-        <f t="shared" si="120"/>
+        <f t="shared" si="119"/>
         <v>5.72</v>
       </c>
     </row>
@@ -9946,7 +9953,7 @@
       <c r="A1074" s="1">
         <v>45634</v>
       </c>
-      <c r="B1074">
+      <c r="B1074" s="3">
         <v>5.72</v>
       </c>
     </row>
@@ -9955,7 +9962,7 @@
         <v>45635</v>
       </c>
       <c r="B1075" s="2">
-        <f t="shared" ref="B1075:B1087" si="121">B1076</f>
+        <f t="shared" ref="B1075:B1087" si="120">B1076</f>
         <v>6.7</v>
       </c>
     </row>
@@ -9964,7 +9971,7 @@
         <v>45636</v>
       </c>
       <c r="B1076" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -9973,7 +9980,7 @@
         <v>45637</v>
       </c>
       <c r="B1077" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -9982,7 +9989,7 @@
         <v>45638</v>
       </c>
       <c r="B1078" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -9991,7 +9998,7 @@
         <v>45639</v>
       </c>
       <c r="B1079" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10000,7 +10007,7 @@
         <v>45640</v>
       </c>
       <c r="B1080" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10009,7 +10016,7 @@
         <v>45641</v>
       </c>
       <c r="B1081" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10018,7 +10025,7 @@
         <v>45642</v>
       </c>
       <c r="B1082" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10027,7 +10034,7 @@
         <v>45643</v>
       </c>
       <c r="B1083" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10036,7 +10043,7 @@
         <v>45644</v>
       </c>
       <c r="B1084" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10045,7 +10052,7 @@
         <v>45645</v>
       </c>
       <c r="B1085" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10054,7 +10061,7 @@
         <v>45646</v>
       </c>
       <c r="B1086" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10063,7 +10070,7 @@
         <v>45647</v>
       </c>
       <c r="B1087" s="2">
-        <f t="shared" si="121"/>
+        <f t="shared" si="120"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10071,7 +10078,7 @@
       <c r="A1088" s="1">
         <v>45648</v>
       </c>
-      <c r="B1088">
+      <c r="B1088" s="3">
         <v>6.7</v>
       </c>
     </row>
@@ -10080,7 +10087,7 @@
         <v>45649</v>
       </c>
       <c r="B1089" s="2">
-        <f t="shared" ref="B1089:B1094" si="122">B1090</f>
+        <f t="shared" ref="B1089:B1094" si="121">B1090</f>
         <v>4.59</v>
       </c>
     </row>
@@ -10089,7 +10096,7 @@
         <v>45650</v>
       </c>
       <c r="B1090" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10098,7 +10105,7 @@
         <v>45651</v>
       </c>
       <c r="B1091" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10107,7 +10114,7 @@
         <v>45652</v>
       </c>
       <c r="B1092" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10116,7 +10123,7 @@
         <v>45653</v>
       </c>
       <c r="B1093" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10125,7 +10132,7 @@
         <v>45654</v>
       </c>
       <c r="B1094" s="2">
-        <f t="shared" si="122"/>
+        <f t="shared" si="121"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10133,7 +10140,7 @@
       <c r="A1095" s="1">
         <v>45655</v>
       </c>
-      <c r="B1095">
+      <c r="B1095" s="3">
         <v>4.59</v>
       </c>
     </row>
@@ -10142,7 +10149,7 @@
         <v>45656</v>
       </c>
       <c r="B1096" s="2">
-        <f t="shared" ref="B1096" si="123">B1097</f>
+        <f t="shared" ref="B1096" si="122">B1097</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10150,7 +10157,7 @@
       <c r="A1097" s="1">
         <v>45657</v>
       </c>
-      <c r="B1097">
+      <c r="B1097" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10159,7 +10166,7 @@
         <v>45658</v>
       </c>
       <c r="B1098" s="2">
-        <f t="shared" ref="B1098:B1115" si="124">B1099</f>
+        <f t="shared" ref="B1098:B1115" si="123">B1099</f>
         <v>6.7</v>
       </c>
     </row>
@@ -10168,7 +10175,7 @@
         <v>45659</v>
       </c>
       <c r="B1099" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10177,7 +10184,7 @@
         <v>45660</v>
       </c>
       <c r="B1100" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10186,7 +10193,7 @@
         <v>45661</v>
       </c>
       <c r="B1101" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10195,7 +10202,7 @@
         <v>45662</v>
       </c>
       <c r="B1102" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10204,7 +10211,7 @@
         <v>45663</v>
       </c>
       <c r="B1103" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10213,7 +10220,7 @@
         <v>45664</v>
       </c>
       <c r="B1104" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10222,7 +10229,7 @@
         <v>45665</v>
       </c>
       <c r="B1105" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10231,7 +10238,7 @@
         <v>45666</v>
       </c>
       <c r="B1106" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10240,7 +10247,7 @@
         <v>45667</v>
       </c>
       <c r="B1107" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10249,7 +10256,7 @@
         <v>45668</v>
       </c>
       <c r="B1108" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10258,7 +10265,7 @@
         <v>45669</v>
       </c>
       <c r="B1109" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10267,7 +10274,7 @@
         <v>45670</v>
       </c>
       <c r="B1110" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10276,7 +10283,7 @@
         <v>45671</v>
       </c>
       <c r="B1111" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10285,7 +10292,7 @@
         <v>45672</v>
       </c>
       <c r="B1112" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10294,7 +10301,7 @@
         <v>45673</v>
       </c>
       <c r="B1113" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10303,7 +10310,7 @@
         <v>45674</v>
       </c>
       <c r="B1114" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10312,7 +10319,7 @@
         <v>45675</v>
       </c>
       <c r="B1115" s="2">
-        <f t="shared" si="124"/>
+        <f t="shared" si="123"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10320,7 +10327,7 @@
       <c r="A1116" s="1">
         <v>45676</v>
       </c>
-      <c r="B1116">
+      <c r="B1116" s="3">
         <v>6.7</v>
       </c>
     </row>
@@ -10329,7 +10336,7 @@
         <v>45677</v>
       </c>
       <c r="B1117" s="2">
-        <f t="shared" ref="B1117:B1122" si="125">B1118</f>
+        <f t="shared" ref="B1117:B1122" si="124">B1118</f>
         <v>6.43</v>
       </c>
     </row>
@@ -10338,7 +10345,7 @@
         <v>45678</v>
       </c>
       <c r="B1118" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>6.43</v>
       </c>
     </row>
@@ -10347,7 +10354,7 @@
         <v>45679</v>
       </c>
       <c r="B1119" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>6.43</v>
       </c>
     </row>
@@ -10356,7 +10363,7 @@
         <v>45680</v>
       </c>
       <c r="B1120" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>6.43</v>
       </c>
     </row>
@@ -10365,7 +10372,7 @@
         <v>45681</v>
       </c>
       <c r="B1121" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>6.43</v>
       </c>
     </row>
@@ -10374,7 +10381,7 @@
         <v>45682</v>
       </c>
       <c r="B1122" s="2">
-        <f t="shared" si="125"/>
+        <f t="shared" si="124"/>
         <v>6.43</v>
       </c>
     </row>
@@ -10382,7 +10389,7 @@
       <c r="A1123" s="1">
         <v>45683</v>
       </c>
-      <c r="B1123">
+      <c r="B1123" s="3">
         <v>6.43</v>
       </c>
     </row>
@@ -10391,7 +10398,7 @@
         <v>45684</v>
       </c>
       <c r="B1124" s="2">
-        <f t="shared" ref="B1124:B1143" si="126">B1125</f>
+        <f t="shared" ref="B1124:B1143" si="125">B1125</f>
         <v>6.7</v>
       </c>
     </row>
@@ -10400,7 +10407,7 @@
         <v>45685</v>
       </c>
       <c r="B1125" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10409,7 +10416,7 @@
         <v>45686</v>
       </c>
       <c r="B1126" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10418,7 +10425,7 @@
         <v>45687</v>
       </c>
       <c r="B1127" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10427,7 +10434,7 @@
         <v>45688</v>
       </c>
       <c r="B1128" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10436,7 +10443,7 @@
         <v>45689</v>
       </c>
       <c r="B1129" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10445,7 +10452,7 @@
         <v>45690</v>
       </c>
       <c r="B1130" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10454,7 +10461,7 @@
         <v>45691</v>
       </c>
       <c r="B1131" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10463,7 +10470,7 @@
         <v>45692</v>
       </c>
       <c r="B1132" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10472,7 +10479,7 @@
         <v>45693</v>
       </c>
       <c r="B1133" s="2">
-        <f t="shared" si="126"/>
+        <f>B1134</f>
         <v>6.7</v>
       </c>
     </row>
@@ -10481,7 +10488,7 @@
         <v>45694</v>
       </c>
       <c r="B1134" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10490,7 +10497,7 @@
         <v>45695</v>
       </c>
       <c r="B1135" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10499,7 +10506,7 @@
         <v>45696</v>
       </c>
       <c r="B1136" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10508,7 +10515,7 @@
         <v>45697</v>
       </c>
       <c r="B1137" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10517,7 +10524,7 @@
         <v>45698</v>
       </c>
       <c r="B1138" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10526,7 +10533,7 @@
         <v>45699</v>
       </c>
       <c r="B1139" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10535,7 +10542,7 @@
         <v>45700</v>
       </c>
       <c r="B1140" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10544,7 +10551,7 @@
         <v>45701</v>
       </c>
       <c r="B1141" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10553,7 +10560,7 @@
         <v>45702</v>
       </c>
       <c r="B1142" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10562,7 +10569,7 @@
         <v>45703</v>
       </c>
       <c r="B1143" s="2">
-        <f t="shared" si="126"/>
+        <f t="shared" si="125"/>
         <v>6.7</v>
       </c>
     </row>
@@ -10570,7 +10577,7 @@
       <c r="A1144" s="1">
         <v>45704</v>
       </c>
-      <c r="B1144">
+      <c r="B1144" s="3">
         <v>6.7</v>
       </c>
     </row>
@@ -10579,7 +10586,7 @@
         <v>45705</v>
       </c>
       <c r="B1145" s="2">
-        <f t="shared" ref="B1145:B1150" si="127">B1146</f>
+        <f t="shared" ref="B1145:B1150" si="126">B1146</f>
         <v>4.59</v>
       </c>
     </row>
@@ -10588,7 +10595,7 @@
         <v>45706</v>
       </c>
       <c r="B1146" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10597,7 +10604,7 @@
         <v>45707</v>
       </c>
       <c r="B1147" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10606,7 +10613,7 @@
         <v>45708</v>
       </c>
       <c r="B1148" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10615,7 +10622,7 @@
         <v>45709</v>
       </c>
       <c r="B1149" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10624,7 +10631,7 @@
         <v>45710</v>
       </c>
       <c r="B1150" s="2">
-        <f t="shared" si="127"/>
+        <f t="shared" si="126"/>
         <v>4.59</v>
       </c>
     </row>
@@ -10632,7 +10639,7 @@
       <c r="A1151" s="1">
         <v>45711</v>
       </c>
-      <c r="B1151">
+      <c r="B1151" s="3">
         <v>4.59</v>
       </c>
     </row>
@@ -10641,7 +10648,7 @@
         <v>45712</v>
       </c>
       <c r="B1152" s="2">
-        <f t="shared" ref="B1152:B1155" si="128">B1153</f>
+        <f t="shared" ref="B1152:B1155" si="127">B1153</f>
         <v>4.29</v>
       </c>
     </row>
@@ -10650,7 +10657,7 @@
         <v>45713</v>
       </c>
       <c r="B1153" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>4.29</v>
       </c>
     </row>
@@ -10659,7 +10666,7 @@
         <v>45714</v>
       </c>
       <c r="B1154" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>4.29</v>
       </c>
     </row>
@@ -10668,7 +10675,7 @@
         <v>45715</v>
       </c>
       <c r="B1155" s="2">
-        <f t="shared" si="128"/>
+        <f t="shared" si="127"/>
         <v>4.29</v>
       </c>
     </row>
@@ -10676,7 +10683,7 @@
       <c r="A1156" s="1">
         <v>45716</v>
       </c>
-      <c r="B1156">
+      <c r="B1156" s="3">
         <v>4.29</v>
       </c>
     </row>
@@ -10685,7 +10692,7 @@
         <v>45717</v>
       </c>
       <c r="B1157" s="2">
-        <f t="shared" ref="B1157:B1164" si="129">B1158</f>
+        <f t="shared" ref="B1157:B1164" si="128">B1158</f>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10694,7 +10701,7 @@
         <v>45718</v>
       </c>
       <c r="B1158" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10703,7 +10710,7 @@
         <v>45719</v>
       </c>
       <c r="B1159" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10712,7 +10719,7 @@
         <v>45720</v>
       </c>
       <c r="B1160" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10721,7 +10728,7 @@
         <v>45721</v>
       </c>
       <c r="B1161" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10730,7 +10737,7 @@
         <v>45722</v>
       </c>
       <c r="B1162" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10739,7 +10746,7 @@
         <v>45723</v>
       </c>
       <c r="B1163" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10748,7 +10755,7 @@
         <v>45724</v>
       </c>
       <c r="B1164" s="2">
-        <f t="shared" si="129"/>
+        <f t="shared" si="128"/>
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10756,7 +10763,7 @@
       <c r="A1165" s="1">
         <v>45725</v>
       </c>
-      <c r="B1165">
+      <c r="B1165" s="3">
         <v>8.3000000000000007</v>
       </c>
     </row>
@@ -10765,7 +10772,7 @@
         <v>45726</v>
       </c>
       <c r="B1166" s="2">
-        <f t="shared" ref="B1166:B1171" si="130">B1167</f>
+        <f t="shared" ref="B1166:B1171" si="129">B1167</f>
         <v>4.42</v>
       </c>
     </row>
@@ -10774,7 +10781,7 @@
         <v>45727</v>
       </c>
       <c r="B1167" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4.42</v>
       </c>
     </row>
@@ -10783,7 +10790,7 @@
         <v>45728</v>
       </c>
       <c r="B1168" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4.42</v>
       </c>
     </row>
@@ -10792,7 +10799,7 @@
         <v>45729</v>
       </c>
       <c r="B1169" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4.42</v>
       </c>
     </row>
@@ -10801,7 +10808,7 @@
         <v>45730</v>
       </c>
       <c r="B1170" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4.42</v>
       </c>
     </row>
@@ -10810,7 +10817,7 @@
         <v>45731</v>
       </c>
       <c r="B1171" s="2">
-        <f t="shared" si="130"/>
+        <f t="shared" si="129"/>
         <v>4.42</v>
       </c>
     </row>
@@ -10818,7 +10825,7 @@
       <c r="A1172" s="1">
         <v>45732</v>
       </c>
-      <c r="B1172">
+      <c r="B1172" s="3">
         <v>4.42</v>
       </c>
     </row>
@@ -10827,7 +10834,7 @@
         <v>45733</v>
       </c>
       <c r="B1173" s="2">
-        <f t="shared" ref="B1173:B1178" si="131">B1174</f>
+        <f t="shared" ref="B1173:B1178" si="130">B1174</f>
         <v>5.68</v>
       </c>
     </row>
@@ -10836,7 +10843,7 @@
         <v>45734</v>
       </c>
       <c r="B1174" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10845,7 +10852,7 @@
         <v>45735</v>
       </c>
       <c r="B1175" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10854,7 +10861,7 @@
         <v>45736</v>
       </c>
       <c r="B1176" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10863,7 +10870,7 @@
         <v>45737</v>
       </c>
       <c r="B1177" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10872,7 +10879,7 @@
         <v>45738</v>
       </c>
       <c r="B1178" s="2">
-        <f t="shared" si="131"/>
+        <f t="shared" si="130"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10880,7 +10887,7 @@
       <c r="A1179" s="1">
         <v>45739</v>
       </c>
-      <c r="B1179">
+      <c r="B1179" s="3">
         <v>5.68</v>
       </c>
     </row>
@@ -10888,7 +10895,7 @@
       <c r="A1180" s="1">
         <v>45740</v>
       </c>
-      <c r="B1180" s="3">
+      <c r="B1180" s="7">
         <f>B1179</f>
         <v>5.68</v>
       </c>
@@ -10897,8 +10904,8 @@
       <c r="A1181" s="1">
         <v>45741</v>
       </c>
-      <c r="B1181" s="3">
-        <f t="shared" ref="B1181:B1202" si="132">B1180</f>
+      <c r="B1181" s="7">
+        <f t="shared" ref="B1181:B1202" si="131">B1180</f>
         <v>5.68</v>
       </c>
     </row>
@@ -10906,8 +10913,8 @@
       <c r="A1182" s="1">
         <v>45742</v>
       </c>
-      <c r="B1182" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1182" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10915,8 +10922,8 @@
       <c r="A1183" s="1">
         <v>45743</v>
       </c>
-      <c r="B1183" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1183" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10924,8 +10931,8 @@
       <c r="A1184" s="1">
         <v>45744</v>
       </c>
-      <c r="B1184" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1184" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10933,8 +10940,8 @@
       <c r="A1185" s="1">
         <v>45745</v>
       </c>
-      <c r="B1185" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1185" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10942,8 +10949,8 @@
       <c r="A1186" s="1">
         <v>45746</v>
       </c>
-      <c r="B1186" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1186" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10951,8 +10958,8 @@
       <c r="A1187" s="1">
         <v>45747</v>
       </c>
-      <c r="B1187" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1187" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10960,8 +10967,8 @@
       <c r="A1188" s="1">
         <v>45748</v>
       </c>
-      <c r="B1188" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1188" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10969,8 +10976,8 @@
       <c r="A1189" s="1">
         <v>45749</v>
       </c>
-      <c r="B1189" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1189" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10978,8 +10985,8 @@
       <c r="A1190" s="1">
         <v>45750</v>
       </c>
-      <c r="B1190" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1190" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10987,8 +10994,8 @@
       <c r="A1191" s="1">
         <v>45751</v>
       </c>
-      <c r="B1191" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1191" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -10996,8 +11003,8 @@
       <c r="A1192" s="1">
         <v>45752</v>
       </c>
-      <c r="B1192" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1192" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11005,8 +11012,8 @@
       <c r="A1193" s="1">
         <v>45753</v>
       </c>
-      <c r="B1193" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1193" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11014,8 +11021,8 @@
       <c r="A1194" s="1">
         <v>45754</v>
       </c>
-      <c r="B1194" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1194" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11023,8 +11030,8 @@
       <c r="A1195" s="1">
         <v>45755</v>
       </c>
-      <c r="B1195" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1195" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11032,8 +11039,8 @@
       <c r="A1196" s="1">
         <v>45756</v>
       </c>
-      <c r="B1196" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1196" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11041,8 +11048,8 @@
       <c r="A1197" s="1">
         <v>45757</v>
       </c>
-      <c r="B1197" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1197" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11050,8 +11057,8 @@
       <c r="A1198" s="1">
         <v>45758</v>
       </c>
-      <c r="B1198" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1198" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11059,8 +11066,8 @@
       <c r="A1199" s="1">
         <v>45759</v>
       </c>
-      <c r="B1199" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1199" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11068,8 +11075,8 @@
       <c r="A1200" s="1">
         <v>45760</v>
       </c>
-      <c r="B1200" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1200" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11077,8 +11084,8 @@
       <c r="A1201" s="1">
         <v>45761</v>
       </c>
-      <c r="B1201" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1201" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
@@ -11086,8 +11093,8 @@
       <c r="A1202" s="1">
         <v>45762</v>
       </c>
-      <c r="B1202" s="3">
-        <f t="shared" si="132"/>
+      <c r="B1202" s="7">
+        <f t="shared" si="131"/>
         <v>5.68</v>
       </c>
     </row>
